--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_12_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2059360.042033278</v>
+        <v>2033679.161761554</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1662603.457867925</v>
+        <v>1662603.457867924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5444238.737079144</v>
+        <v>5444238.737079143</v>
       </c>
     </row>
     <row r="9">
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.309829763041574</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K10" t="n">
         <v>6.876045741711437</v>
@@ -1335,16 +1335,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>285.850411883647</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.389461991174</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.89413358608674</v>
+        <v>257.7996118408494</v>
       </c>
       <c r="E11" t="n">
-        <v>285.0469402924282</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>122.0455837174143</v>
       </c>
       <c r="G11" t="n">
         <v>302.0622562320661</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>240.231390268579</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>104.7084652926656</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>38.51038255521701</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>106.8855140786107</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>48.5376182430977</v>
       </c>
       <c r="G13" t="n">
-        <v>71.00418263512408</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>64.42471662993232</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>75.76220793773044</v>
       </c>
       <c r="S13" t="n">
         <v>125.3317643417599</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>130.6205008898522</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>67.67731809572786</v>
       </c>
       <c r="V13" t="n">
         <v>155.2542135439945</v>
@@ -1593,10 +1593,10 @@
         <v>189.6395685567575</v>
       </c>
       <c r="X13" t="n">
-        <v>65.46752232909061</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.7012235722612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>154.4437880184813</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>168.2334116918419</v>
+        <v>33.32269083410331</v>
       </c>
       <c r="W14" t="n">
         <v>252.3575389375795</v>
@@ -1675,7 +1675,7 @@
         <v>272.8476708986355</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>289.3545088762201</v>
       </c>
     </row>
     <row r="15">
@@ -1700,7 +1700,7 @@
         <v>48.18578261355033</v>
       </c>
       <c r="G15" t="n">
-        <v>40.33679171869322</v>
+        <v>40.33679171869323</v>
       </c>
       <c r="H15" t="n">
         <v>14.16123790563725</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>72.50957842954769</v>
+        <v>72.50957842954756</v>
       </c>
       <c r="T15" t="n">
         <v>102.7843308630386</v>
       </c>
       <c r="U15" t="n">
-        <v>129.0498407442541</v>
+        <v>129.0498407442542</v>
       </c>
       <c r="V15" t="n">
         <v>135.9171573695917</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>82.94855040210375</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.36339131879429</v>
       </c>
       <c r="D16" t="n">
         <v>51.73204323837881</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>49.55053286673562</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>48.5376182430977</v>
       </c>
       <c r="G16" t="n">
         <v>71.00418263512408</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>64.42471662993232</v>
       </c>
       <c r="I16" t="n">
         <v>55.45851924649974</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.76220793773044</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>72.27123287817381</v>
+        <v>169.9774114190501</v>
       </c>
       <c r="V16" t="n">
-        <v>155.2542135439945</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>189.6395685567575</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>128.8262256092036</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.7012235722612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>112.9346224350136</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.20943507010556</v>
+        <v>4.209435070105561</v>
       </c>
       <c r="S17" t="n">
-        <v>72.58456659349928</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>90.9027261500498</v>
@@ -1909,7 +1909,7 @@
         <v>218.056591452468</v>
       </c>
       <c r="X17" t="n">
-        <v>40.35005584151433</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>35.34880638492234</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>41.52412172337074</v>
       </c>
       <c r="D18" t="n">
         <v>16.26068829969375</v>
@@ -1934,13 +1934,13 @@
         <v>26.46070319045594</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>13.88483512843888</v>
       </c>
       <c r="G18" t="n">
         <v>6.03584423358178</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>66.520423417251</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.52042341725097</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>169.3930082093811</v>
+        <v>38.20863094443611</v>
       </c>
       <c r="T18" t="n">
-        <v>68.4833833779272</v>
+        <v>199.6677606428722</v>
       </c>
       <c r="U18" t="n">
-        <v>94.74889325914272</v>
+        <v>225.9332705240877</v>
       </c>
       <c r="V18" t="n">
         <v>101.6162098844803</v>
       </c>
       <c r="W18" t="n">
-        <v>120.5106058959746</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>74.58860793853248</v>
@@ -2013,13 +2013,13 @@
         <v>15.24958538162417</v>
       </c>
       <c r="F19" t="n">
-        <v>14.23667075798625</v>
+        <v>14.23667075798645</v>
       </c>
       <c r="G19" t="n">
         <v>36.70323515001262</v>
       </c>
       <c r="H19" t="n">
-        <v>30.1237691448213</v>
+        <v>30.12376914482086</v>
       </c>
       <c r="I19" t="n">
         <v>21.15757176138829</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>234.0885145060626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>223.498664355738</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>246.2804986249819</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.209435070105561</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>72.58456659349928</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>90.9027261500498</v>
       </c>
       <c r="U20" t="n">
-        <v>29.92993201704898</v>
+        <v>120.1428405333699</v>
       </c>
       <c r="V20" t="n">
         <v>196.5678812051899</v>
@@ -2146,10 +2146,10 @@
         <v>218.056591452468</v>
       </c>
       <c r="X20" t="n">
-        <v>238.546723413524</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>255.0535613911086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>41.52412172337074</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>16.26068829969375</v>
       </c>
       <c r="E21" t="n">
         <v>26.46070319045594</v>
@@ -2174,7 +2174,7 @@
         <v>13.88483512843888</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2202214985268</v>
+        <v>6.03584423358178</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.52042341725119</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>38.20863094443611</v>
@@ -2219,16 +2219,16 @@
         <v>94.74889325914272</v>
       </c>
       <c r="V21" t="n">
-        <v>101.6162098844803</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>120.5106058959746</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>74.58860793853248</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>141.0187419296105</v>
       </c>
     </row>
     <row r="22">
@@ -2256,10 +2256,10 @@
         <v>36.70323515001263</v>
       </c>
       <c r="H22" t="n">
-        <v>30.12376914482116</v>
+        <v>30.12376914482087</v>
       </c>
       <c r="I22" t="n">
-        <v>21.15757176138829</v>
+        <v>21.15757176138828</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>96.31955340474073</v>
       </c>
       <c r="U22" t="n">
-        <v>155.1290138946279</v>
+        <v>155.1290138946275</v>
       </c>
       <c r="V22" t="n">
         <v>120.953266058883</v>
@@ -2320,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>133.0463332573799</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>250.7459928073168</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>283.8879213811697</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>205.9304427834676</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.20943507010556</v>
+        <v>4.209435070105561</v>
       </c>
       <c r="S23" t="n">
         <v>72.58456659349928</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>90.9027261500498</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>120.1428405333699</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>196.5678812051899</v>
       </c>
       <c r="W23" t="n">
-        <v>218.056591452468</v>
+        <v>198.0173902685505</v>
       </c>
       <c r="X23" t="n">
-        <v>238.546723413524</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>255.0535613911086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2405,13 +2405,13 @@
         <v>16.26068829969375</v>
       </c>
       <c r="E24" t="n">
-        <v>26.46070319045594</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>13.88483512843888</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>6.03584423358178</v>
+        <v>72.55626765083279</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>92.50268753306125</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>38.20863094443611</v>
       </c>
       <c r="T24" t="n">
-        <v>199.6677606428722</v>
+        <v>68.4833833779272</v>
       </c>
       <c r="U24" t="n">
-        <v>199.9510064082776</v>
+        <v>94.74889325914272</v>
       </c>
       <c r="V24" t="n">
         <v>101.6162098844803</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>120.5106058959746</v>
       </c>
       <c r="X24" t="n">
-        <v>74.58860793853248</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>74.49831851235936</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.46126045261949</v>
+        <v>41.46126045261898</v>
       </c>
       <c r="S25" t="n">
         <v>91.03081685664841</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>303.6135712614894</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>286.1526213690164</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>275.5627712186918</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>86.97231925867057</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>32.9633304105009</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>335.9520282441235</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>257.9945496464214</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>122.471624670508</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>56.27354193305939</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.6486734564531</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>172.2069473963237</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>248.6319880681438</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>270.1206983154219</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.1176682540624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>87.41291324787618</v>
+        <v>87.4129132478762</v>
       </c>
       <c r="C27" t="n">
-        <v>93.58822858632458</v>
+        <v>93.5882285863246</v>
       </c>
       <c r="D27" t="n">
-        <v>68.32479516264759</v>
+        <v>68.32479516264762</v>
       </c>
       <c r="E27" t="n">
-        <v>78.52481005340978</v>
+        <v>78.52481005340981</v>
       </c>
       <c r="F27" t="n">
-        <v>65.94894199139272</v>
+        <v>65.94894199139274</v>
       </c>
       <c r="G27" t="n">
-        <v>58.09995109653561</v>
+        <v>58.09995109653563</v>
       </c>
       <c r="H27" t="n">
-        <v>31.92439728347964</v>
+        <v>31.92439728347966</v>
       </c>
       <c r="I27" t="n">
-        <v>6.031314345177111</v>
+        <v>6.031314345177137</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>13.38241713107009</v>
+        <v>13.3824171310701</v>
       </c>
       <c r="S27" t="n">
-        <v>90.27273780738994</v>
+        <v>90.27273780738999</v>
       </c>
       <c r="T27" t="n">
-        <v>120.547490240881</v>
+        <v>120.5474902408811</v>
       </c>
       <c r="U27" t="n">
-        <v>146.8130001220966</v>
+        <v>146.8130001220967</v>
       </c>
       <c r="V27" t="n">
         <v>153.6803167474341</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.7117097799461</v>
+        <v>100.7117097799462</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>88.1265506966367</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>88.76734201296649</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>207.1931207575815</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>173.0173729218369</v>
       </c>
       <c r="W28" t="n">
-        <v>205.8445385942092</v>
+        <v>207.4027279345999</v>
       </c>
       <c r="X28" t="n">
-        <v>146.589384987046</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2.313050772796618</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.6135712614894</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>286.1526213690164</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>302.8100996702706</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>49.09405204246096</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>257.9945496464215</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.27354193305954</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>124.6486734564533</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>142.9668330130038</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>248.6319880681439</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>270.120698315422</v>
       </c>
       <c r="X29" t="n">
-        <v>240.6472061966047</v>
+        <v>290.610830276478</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.1176682540624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87.41291324787618</v>
+        <v>87.41291324787632</v>
       </c>
       <c r="C30" t="n">
-        <v>93.58822858632458</v>
+        <v>93.58822858632472</v>
       </c>
       <c r="D30" t="n">
-        <v>68.32479516264759</v>
+        <v>68.32479516264773</v>
       </c>
       <c r="E30" t="n">
-        <v>78.52481005340978</v>
+        <v>78.52481005340992</v>
       </c>
       <c r="F30" t="n">
-        <v>65.94894199139272</v>
+        <v>65.94894199139286</v>
       </c>
       <c r="G30" t="n">
-        <v>58.09995109653561</v>
+        <v>58.09995109653575</v>
       </c>
       <c r="H30" t="n">
-        <v>31.92439728347964</v>
+        <v>31.92439728347978</v>
       </c>
       <c r="I30" t="n">
-        <v>6.031314345177108</v>
+        <v>6.03131434517725</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>13.38241713107008</v>
+        <v>13.38241713107023</v>
       </c>
       <c r="S30" t="n">
-        <v>90.27273780739048</v>
+        <v>90.2727378073898</v>
       </c>
       <c r="T30" t="n">
-        <v>120.547490240881</v>
+        <v>120.5474902408812</v>
       </c>
       <c r="U30" t="n">
-        <v>146.8130001220966</v>
+        <v>146.8130001220967</v>
       </c>
       <c r="V30" t="n">
-        <v>153.6803167474341</v>
+        <v>153.6803167474342</v>
       </c>
       <c r="W30" t="n">
-        <v>172.5747127589285</v>
+        <v>172.5747127589286</v>
       </c>
       <c r="X30" t="n">
-        <v>126.6527148014863</v>
+        <v>126.6527148014865</v>
       </c>
       <c r="Y30" t="n">
-        <v>126.5624253753132</v>
+        <v>126.5624253753133</v>
       </c>
     </row>
     <row r="31">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.7117097799461</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>69.49520261622119</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>66.30077762094008</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.930866809151483</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>93.52536731557282</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>143.0949237196024</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>115.9721020423512</v>
+        <v>173.017372921837</v>
       </c>
       <c r="W31" t="n">
-        <v>207.4027279345999</v>
+        <v>197.6370724902966</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>146.5893849870461</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>251.5494643985356</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>234.0885145060626</v>
       </c>
       <c r="D32" t="n">
         <v>223.498664355738</v>
       </c>
       <c r="E32" t="n">
-        <v>250.7459928073168</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>275.6916684767664</v>
       </c>
       <c r="G32" t="n">
-        <v>118.0255633601126</v>
+        <v>173.7747353087982</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>72.58456659349928</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>218.056591452468</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>84.2467630708525</v>
+        <v>85.15158474716827</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>92.50268753306125</v>
+        <v>91.59786585674486</v>
       </c>
       <c r="S33" t="n">
-        <v>169.3930082093811</v>
+        <v>38.20863094443611</v>
       </c>
       <c r="T33" t="n">
-        <v>199.6677606428722</v>
+        <v>68.4833833779272</v>
       </c>
       <c r="U33" t="n">
         <v>94.74889325914272</v>
       </c>
       <c r="V33" t="n">
-        <v>101.6162098844803</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>74.58860793853248</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3201,13 +3201,13 @@
         <v>14.23667075798625</v>
       </c>
       <c r="G34" t="n">
-        <v>36.70323515001263</v>
+        <v>36.70323515001262</v>
       </c>
       <c r="H34" t="n">
-        <v>30.12376914482087</v>
+        <v>30.12376914482086</v>
       </c>
       <c r="I34" t="n">
-        <v>21.15757176138828</v>
+        <v>21.15757176138829</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.46126045261897</v>
+        <v>41.46126045261898</v>
       </c>
       <c r="S34" t="n">
         <v>91.03081685664841</v>
       </c>
       <c r="T34" t="n">
-        <v>96.3195534047406</v>
+        <v>96.31955340474074</v>
       </c>
       <c r="U34" t="n">
-        <v>155.1290138946277</v>
+        <v>155.1290138946276</v>
       </c>
       <c r="V34" t="n">
         <v>120.953266058883</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>234.0885145060626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>223.498664355738</v>
       </c>
       <c r="E35" t="n">
-        <v>250.7459928073168</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>205.9304427834676</v>
       </c>
       <c r="I35" t="n">
-        <v>70.40751780755414</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>4.209435070105561</v>
       </c>
       <c r="S35" t="n">
-        <v>72.58456659349928</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>90.9027261500498</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>120.1428405333699</v>
+        <v>85.43346570490907</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>196.5678812051899</v>
       </c>
       <c r="W35" t="n">
-        <v>90.61488710392022</v>
+        <v>218.056591452468</v>
       </c>
       <c r="X35" t="n">
         <v>238.546723413524</v>
@@ -3350,10 +3350,10 @@
         <v>41.52412172337074</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>16.26068829969375</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>26.46070319045594</v>
       </c>
       <c r="F36" t="n">
         <v>13.88483512843888</v>
@@ -3362,10 +3362,10 @@
         <v>6.03584423358178</v>
       </c>
       <c r="H36" t="n">
-        <v>111.0446676854708</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>85.15158474716827</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>92.50268753306125</v>
       </c>
       <c r="S36" t="n">
-        <v>38.20863094443611</v>
+        <v>169.3930082093811</v>
       </c>
       <c r="T36" t="n">
-        <v>68.4833833779272</v>
+        <v>173.6854965270622</v>
       </c>
       <c r="U36" t="n">
         <v>94.74889325914272</v>
       </c>
       <c r="V36" t="n">
-        <v>103.1247581340372</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>120.5106058959746</v>
@@ -3505,7 +3505,7 @@
         <v>251.5494643985356</v>
       </c>
       <c r="C38" t="n">
-        <v>234.0885145060626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>275.6916684767664</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>205.9304427834676</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>28.68437870925317</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>4.209435070105561</v>
       </c>
       <c r="S38" t="n">
-        <v>72.58456659349928</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>120.1428405333699</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>196.5678812051899</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>69.02835291032635</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35.34880638492234</v>
+        <v>55.39933478688902</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>41.52412172337074</v>
       </c>
       <c r="D39" t="n">
         <v>16.26068829969375</v>
@@ -3593,13 +3593,13 @@
         <v>26.46070319045594</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>13.88483512843888</v>
       </c>
       <c r="G39" t="n">
-        <v>7.544392483138763</v>
+        <v>6.03584423358178</v>
       </c>
       <c r="H39" t="n">
-        <v>111.0446676854708</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>85.15158474716827</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>92.50268753306125</v>
       </c>
       <c r="S39" t="n">
         <v>38.20863094443611</v>
@@ -3638,7 +3638,7 @@
         <v>68.4833833779272</v>
       </c>
       <c r="U39" t="n">
-        <v>94.74889325914272</v>
+        <v>225.9332705240877</v>
       </c>
       <c r="V39" t="n">
         <v>101.6162098844803</v>
@@ -3650,7 +3650,7 @@
         <v>74.58860793853248</v>
       </c>
       <c r="Y39" t="n">
-        <v>74.49831851235936</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3675,13 +3675,13 @@
         <v>14.23667075798625</v>
       </c>
       <c r="G40" t="n">
-        <v>36.70323515001262</v>
+        <v>36.70323515001263</v>
       </c>
       <c r="H40" t="n">
-        <v>30.12376914482086</v>
+        <v>30.12376914482087</v>
       </c>
       <c r="I40" t="n">
-        <v>21.15757176138829</v>
+        <v>21.15757176138828</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.46126045261898</v>
+        <v>41.46126045261897</v>
       </c>
       <c r="S40" t="n">
-        <v>91.03081685664857</v>
+        <v>91.03081685664841</v>
       </c>
       <c r="T40" t="n">
-        <v>96.31955340474074</v>
+        <v>96.31955340474073</v>
       </c>
       <c r="U40" t="n">
-        <v>155.1290138946276</v>
+        <v>155.1290138946278</v>
       </c>
       <c r="V40" t="n">
         <v>120.953266058883</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>278.9078374229423</v>
+        <v>245.1564753019875</v>
       </c>
       <c r="D41" t="n">
-        <v>175.3743802269136</v>
+        <v>268.3179872726176</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>115.2268407244338</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>49.02875798698525</v>
       </c>
       <c r="S41" t="n">
         <v>117.403889510379</v>
@@ -3796,10 +3796,10 @@
         <v>135.7220490669295</v>
       </c>
       <c r="U41" t="n">
-        <v>164.9621634502496</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>241.3872041220696</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>299.8728843079883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.16812930180205</v>
+        <v>80.16812930180203</v>
       </c>
       <c r="C42" t="n">
-        <v>86.34344464025045</v>
+        <v>86.34344464025042</v>
       </c>
       <c r="D42" t="n">
-        <v>61.08001121657347</v>
+        <v>61.08001121657344</v>
       </c>
       <c r="E42" t="n">
-        <v>71.28002610733566</v>
+        <v>71.28002610733563</v>
       </c>
       <c r="F42" t="n">
-        <v>58.70415804531859</v>
+        <v>58.70415804531856</v>
       </c>
       <c r="G42" t="n">
-        <v>50.85516715046149</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>24.67961333740551</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>6.137633184995968</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.02795386131582</v>
+        <v>11.30547830442746</v>
       </c>
       <c r="T42" t="n">
         <v>113.3027062948069</v>
@@ -3881,13 +3881,13 @@
         <v>146.43553280136</v>
       </c>
       <c r="W42" t="n">
-        <v>131.2526810123416</v>
+        <v>165.3299288128543</v>
       </c>
       <c r="X42" t="n">
         <v>119.4079308554122</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>119.317641429239</v>
       </c>
     </row>
     <row r="43">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>93.46692583387198</v>
       </c>
       <c r="C43" t="n">
-        <v>80.88176675056255</v>
+        <v>80.88176675056252</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>62.25041867014704</v>
       </c>
       <c r="E43" t="n">
-        <v>60.06890829850389</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>74.94309206170058</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>86.28058336949867</v>
       </c>
       <c r="S43" t="n">
-        <v>94.35066561271117</v>
+        <v>135.8501397735281</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>199.9483368115073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>165.7725889757627</v>
       </c>
       <c r="W43" t="n">
-        <v>200.1579439885257</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>85.84829015014084</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>296.3687873154153</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>278.9078374229423</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>295.5653157241965</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>302.0622562320661</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>46.4500428922899</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>115.2268407244339</v>
+        <v>115.2268407244337</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>49.02875798698528</v>
+        <v>49.02875798698513</v>
       </c>
       <c r="S44" t="n">
-        <v>117.403889510379</v>
+        <v>117.4038895103788</v>
       </c>
       <c r="T44" t="n">
-        <v>19.74177530104997</v>
+        <v>135.7220490669294</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>164.9621634502494</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.3872041220695</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>80.16812930180205</v>
+        <v>80.16812930180191</v>
       </c>
       <c r="C45" t="n">
-        <v>86.34344464025045</v>
+        <v>86.34344464025031</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>61.08001121657333</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>71.28002610733552</v>
       </c>
       <c r="F45" t="n">
-        <v>58.70415804531859</v>
+        <v>58.70415804531845</v>
       </c>
       <c r="G45" t="n">
-        <v>29.82031524461881</v>
+        <v>50.85516715046135</v>
       </c>
       <c r="H45" t="n">
-        <v>24.67961333740551</v>
+        <v>24.67961333740537</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6.137633184995968</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.02795386131582</v>
+        <v>83.02795386131568</v>
       </c>
       <c r="T45" t="n">
-        <v>113.3027062948069</v>
+        <v>113.3027062948068</v>
       </c>
       <c r="U45" t="n">
-        <v>139.5682161760224</v>
+        <v>138.7464929326283</v>
       </c>
       <c r="V45" t="n">
-        <v>146.43553280136</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>165.3299288128543</v>
+        <v>165.3299288128542</v>
       </c>
       <c r="X45" t="n">
-        <v>119.4079308554122</v>
+        <v>119.407930855412</v>
       </c>
       <c r="Y45" t="n">
-        <v>119.3176414292391</v>
+        <v>119.3176414292389</v>
       </c>
     </row>
     <row r="46">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.46692583387201</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>58.42387671609092</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>81.52255806689234</v>
+        <v>81.5225580668922</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>86.28058336949856</v>
       </c>
       <c r="S46" t="n">
-        <v>135.8501397735281</v>
+        <v>35.68776997823175</v>
       </c>
       <c r="T46" t="n">
-        <v>141.1388763216204</v>
+        <v>141.1388763216203</v>
       </c>
       <c r="U46" t="n">
-        <v>199.9483368115073</v>
+        <v>199.9483368115072</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>165.7725889757626</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4786,7 +4786,7 @@
         <v>21.38658590694733</v>
       </c>
       <c r="D8" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4810,40 +4810,40 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
         <v>21.38658590694733</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="C9" t="n">
-        <v>14.44108515774386</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5500836593369149</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4892,16 +4892,16 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>7.357368943631237</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>14.16465422792556</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
@@ -4916,19 +4916,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>15.19521781052957</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.495584408540386</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J10" t="n">
         <v>7.495584408540386</v>
@@ -4974,7 +4974,7 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4983,31 +4983,31 @@
         <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="R10" t="n">
-        <v>14.44108515774386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="S10" t="n">
-        <v>14.44108515774386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="T10" t="n">
-        <v>7.495584408540386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U10" t="n">
-        <v>7.495584408540386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V10" t="n">
-        <v>7.495584408540386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W10" t="n">
-        <v>7.495584408540386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="X10" t="n">
-        <v>7.495584408540386</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.495584408540386</v>
+        <v>24.75525293138463</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>919.5112351468028</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="C11" t="n">
-        <v>648.4107684890513</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="D11" t="n">
-        <v>617.2045729475495</v>
+        <v>800.9808345498028</v>
       </c>
       <c r="E11" t="n">
-        <v>329.2783706319655</v>
+        <v>800.9808345498028</v>
       </c>
       <c r="F11" t="n">
-        <v>329.2783706319655</v>
+        <v>677.7024671584752</v>
       </c>
       <c r="G11" t="n">
-        <v>24.16498049856529</v>
+        <v>372.589077025075</v>
       </c>
       <c r="H11" t="n">
-        <v>24.16498049856529</v>
+        <v>129.9311070568134</v>
       </c>
       <c r="I11" t="n">
         <v>24.16498049856529</v>
@@ -5065,28 +5065,28 @@
         <v>1208.249024928265</v>
       </c>
       <c r="R11" t="n">
-        <v>1208.249024928265</v>
+        <v>1169.349648609864</v>
       </c>
       <c r="S11" t="n">
-        <v>1208.249024928265</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="T11" t="n">
-        <v>1208.249024928265</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="U11" t="n">
-        <v>1208.249024928265</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="V11" t="n">
-        <v>1208.249024928265</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="W11" t="n">
-        <v>1208.249024928265</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="X11" t="n">
-        <v>1208.249024928265</v>
+        <v>1061.384482873893</v>
       </c>
       <c r="Y11" t="n">
-        <v>1208.249024928265</v>
+        <v>1061.384482873893</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>316.9247460609242</v>
+        <v>316.9247460609245</v>
       </c>
       <c r="C12" t="n">
-        <v>240.3337670624573</v>
+        <v>240.3337670624576</v>
       </c>
       <c r="D12" t="n">
-        <v>189.2614076838662</v>
+        <v>189.2614076838665</v>
       </c>
       <c r="E12" t="n">
-        <v>127.8860029610708</v>
+        <v>127.8860029610711</v>
       </c>
       <c r="F12" t="n">
-        <v>79.21349527061597</v>
+        <v>79.21349527061614</v>
       </c>
       <c r="G12" t="n">
         <v>38.46926121133019</v>
@@ -5123,19 +5123,19 @@
         <v>34.95810418129544</v>
       </c>
       <c r="K12" t="n">
-        <v>180.0261147733385</v>
+        <v>34.95810418129544</v>
       </c>
       <c r="L12" t="n">
-        <v>436.4923538056023</v>
+        <v>41.44266281624914</v>
       </c>
       <c r="M12" t="n">
-        <v>735.5339874753478</v>
+        <v>340.4842964859946</v>
       </c>
       <c r="N12" t="n">
-        <v>1034.575621145093</v>
+        <v>639.5259301557401</v>
       </c>
       <c r="O12" t="n">
-        <v>1123.273268806561</v>
+        <v>917.3211675856852</v>
       </c>
       <c r="P12" t="n">
         <v>1123.273268806561</v>
@@ -5156,16 +5156,16 @@
         <v>900.8310955981226</v>
       </c>
       <c r="V12" t="n">
-        <v>763.54103764904</v>
+        <v>763.5410376490402</v>
       </c>
       <c r="W12" t="n">
-        <v>607.1657312034986</v>
+        <v>607.1657312034988</v>
       </c>
       <c r="X12" t="n">
-        <v>497.1762812806259</v>
+        <v>497.1762812806262</v>
       </c>
       <c r="Y12" t="n">
-        <v>387.278032798332</v>
+        <v>387.2780327983323</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.9618484430667</v>
+        <v>73.19287771381549</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9618484430667</v>
+        <v>73.19287771381549</v>
       </c>
       <c r="D13" t="n">
-        <v>160.9618484430667</v>
+        <v>73.19287771381549</v>
       </c>
       <c r="E13" t="n">
-        <v>160.9618484430667</v>
+        <v>73.19287771381549</v>
       </c>
       <c r="F13" t="n">
-        <v>160.9618484430667</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="G13" t="n">
-        <v>89.24045184193128</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="H13" t="n">
         <v>24.16498049856529</v>
@@ -5223,28 +5223,28 @@
         <v>824.9964871742421</v>
       </c>
       <c r="R13" t="n">
-        <v>824.9964871742421</v>
+        <v>748.4690044088578</v>
       </c>
       <c r="S13" t="n">
-        <v>698.3987454148887</v>
+        <v>621.8712626495044</v>
       </c>
       <c r="T13" t="n">
-        <v>698.3987454148887</v>
+        <v>489.9313627607648</v>
       </c>
       <c r="U13" t="n">
-        <v>698.3987454148887</v>
+        <v>421.5704353913427</v>
       </c>
       <c r="V13" t="n">
-        <v>541.576307491662</v>
+        <v>264.747997468116</v>
       </c>
       <c r="W13" t="n">
-        <v>350.0211877373615</v>
+        <v>73.19287771381549</v>
       </c>
       <c r="X13" t="n">
-        <v>283.8923773039367</v>
+        <v>73.19287771381549</v>
       </c>
       <c r="Y13" t="n">
-        <v>160.9618484430667</v>
+        <v>73.19287771381549</v>
       </c>
     </row>
     <row r="14">
@@ -5278,13 +5278,13 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J14" t="n">
-        <v>31.69781288741925</v>
+        <v>31.6978128874191</v>
       </c>
       <c r="K14" t="n">
-        <v>163.7323802006366</v>
+        <v>163.7323802006365</v>
       </c>
       <c r="L14" t="n">
-        <v>379.8095637899937</v>
+        <v>379.8095637899935</v>
       </c>
       <c r="M14" t="n">
         <v>636.8436096221674</v>
@@ -5311,16 +5311,16 @@
         <v>1169.349648609864</v>
       </c>
       <c r="U14" t="n">
-        <v>1013.345822328569</v>
+        <v>1169.349648609864</v>
       </c>
       <c r="V14" t="n">
-        <v>843.4130832459007</v>
+        <v>1135.690364939052</v>
       </c>
       <c r="W14" t="n">
-        <v>588.5064782584467</v>
+        <v>880.7837599515982</v>
       </c>
       <c r="X14" t="n">
-        <v>312.902770280027</v>
+        <v>605.1800519731785</v>
       </c>
       <c r="Y14" t="n">
         <v>312.902770280027</v>
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>316.9247460609242</v>
+        <v>316.9247460609245</v>
       </c>
       <c r="C15" t="n">
-        <v>240.3337670624573</v>
+        <v>240.3337670624576</v>
       </c>
       <c r="D15" t="n">
-        <v>189.2614076838662</v>
+        <v>189.2614076838665</v>
       </c>
       <c r="E15" t="n">
-        <v>127.8860029610708</v>
+        <v>127.8860029610712</v>
       </c>
       <c r="F15" t="n">
-        <v>79.21349527061597</v>
+        <v>79.21349527061628</v>
       </c>
       <c r="G15" t="n">
         <v>38.46926121133019</v>
@@ -5357,22 +5357,22 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J15" t="n">
-        <v>24.16498049856529</v>
+        <v>34.95810418129544</v>
       </c>
       <c r="K15" t="n">
-        <v>168.9938135754344</v>
+        <v>34.95810418129544</v>
       </c>
       <c r="L15" t="n">
-        <v>425.4600526076982</v>
+        <v>291.4243432135593</v>
       </c>
       <c r="M15" t="n">
-        <v>425.4600526076982</v>
+        <v>590.4659768833047</v>
       </c>
       <c r="N15" t="n">
-        <v>724.5016862774437</v>
+        <v>889.5076105530502</v>
       </c>
       <c r="O15" t="n">
-        <v>1002.296923707389</v>
+        <v>1167.302847982995</v>
       </c>
       <c r="P15" t="n">
         <v>1208.249024928265</v>
@@ -5390,19 +5390,19 @@
         <v>1031.184470087268</v>
       </c>
       <c r="U15" t="n">
-        <v>900.8310955981226</v>
+        <v>900.8310955981228</v>
       </c>
       <c r="V15" t="n">
-        <v>763.54103764904</v>
+        <v>763.5410376490403</v>
       </c>
       <c r="W15" t="n">
-        <v>607.1657312034986</v>
+        <v>607.1657312034988</v>
       </c>
       <c r="X15" t="n">
-        <v>497.1762812806259</v>
+        <v>497.1762812806261</v>
       </c>
       <c r="Y15" t="n">
-        <v>387.278032798332</v>
+        <v>387.2780327983324</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>204.159672538972</v>
+        <v>439.3882170425679</v>
       </c>
       <c r="C16" t="n">
-        <v>204.159672538972</v>
+        <v>368.3140843973212</v>
       </c>
       <c r="D16" t="n">
-        <v>151.9050834092964</v>
+        <v>316.0594952676456</v>
       </c>
       <c r="E16" t="n">
-        <v>151.9050834092964</v>
+        <v>266.0084519679126</v>
       </c>
       <c r="F16" t="n">
-        <v>151.9050834092964</v>
+        <v>216.9805547526624</v>
       </c>
       <c r="G16" t="n">
-        <v>80.18368680816099</v>
+        <v>145.259158151527</v>
       </c>
       <c r="H16" t="n">
         <v>80.18368680816099</v>
@@ -5460,28 +5460,28 @@
         <v>824.9964871742421</v>
       </c>
       <c r="R16" t="n">
-        <v>748.4690044088578</v>
+        <v>824.9964871742421</v>
       </c>
       <c r="S16" t="n">
-        <v>748.4690044088578</v>
+        <v>824.9964871742421</v>
       </c>
       <c r="T16" t="n">
-        <v>748.4690044088578</v>
+        <v>824.9964871742421</v>
       </c>
       <c r="U16" t="n">
-        <v>675.4677590773691</v>
+        <v>653.3021322055047</v>
       </c>
       <c r="V16" t="n">
-        <v>518.6453211541424</v>
+        <v>653.3021322055047</v>
       </c>
       <c r="W16" t="n">
-        <v>327.0902013998419</v>
+        <v>653.3021322055047</v>
       </c>
       <c r="X16" t="n">
-        <v>327.0902013998419</v>
+        <v>523.1746315901474</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.159672538972</v>
+        <v>523.1746315901474</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>457.9317553866517</v>
+        <v>572.0071315836352</v>
       </c>
       <c r="C17" t="n">
-        <v>457.9317553866517</v>
+        <v>572.0071315836352</v>
       </c>
       <c r="D17" t="n">
-        <v>232.1755287646941</v>
+        <v>346.2509049616776</v>
       </c>
       <c r="E17" t="n">
-        <v>232.1755287646941</v>
+        <v>346.2509049616776</v>
       </c>
       <c r="F17" t="n">
         <v>232.1755287646941</v>
@@ -5515,13 +5515,13 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J17" t="n">
-        <v>31.6978128874191</v>
+        <v>31.69781288741925</v>
       </c>
       <c r="K17" t="n">
-        <v>163.7323802006364</v>
+        <v>163.7323802006366</v>
       </c>
       <c r="L17" t="n">
-        <v>379.8095637899935</v>
+        <v>379.8095637899937</v>
       </c>
       <c r="M17" t="n">
         <v>636.8436096221674</v>
@@ -5542,25 +5542,25 @@
         <v>1203.997070311996</v>
       </c>
       <c r="S17" t="n">
-        <v>1130.679326278159</v>
+        <v>1203.997070311996</v>
       </c>
       <c r="T17" t="n">
-        <v>1038.858390773058</v>
+        <v>1112.176134806896</v>
       </c>
       <c r="U17" t="n">
-        <v>917.5019861938964</v>
+        <v>990.8197302277341</v>
       </c>
       <c r="V17" t="n">
-        <v>718.9485708351187</v>
+        <v>792.2663148689564</v>
       </c>
       <c r="W17" t="n">
-        <v>498.6893875497975</v>
+        <v>572.0071315836352</v>
       </c>
       <c r="X17" t="n">
-        <v>457.9317553866517</v>
+        <v>572.0071315836352</v>
       </c>
       <c r="Y17" t="n">
-        <v>457.9317553866517</v>
+        <v>572.0071315836352</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>394.4023008070816</v>
+        <v>196.5757037236078</v>
       </c>
       <c r="C18" t="n">
-        <v>219.9492715259545</v>
+        <v>154.6321464272737</v>
       </c>
       <c r="D18" t="n">
-        <v>203.5243338494962</v>
+        <v>138.2072087508154</v>
       </c>
       <c r="E18" t="n">
-        <v>176.7963508288336</v>
+        <v>111.4792257301528</v>
       </c>
       <c r="F18" t="n">
-        <v>30.2617928557186</v>
+        <v>97.45413974183072</v>
       </c>
       <c r="G18" t="n">
-        <v>24.16498049856529</v>
+        <v>91.3573273846774</v>
       </c>
       <c r="H18" t="n">
         <v>24.16498049856529</v>
@@ -5594,52 +5594,52 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J18" t="n">
-        <v>34.95810418129544</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="K18" t="n">
-        <v>34.95810418129544</v>
+        <v>168.9938135754344</v>
       </c>
       <c r="L18" t="n">
-        <v>41.44266281624914</v>
+        <v>425.4600526076982</v>
       </c>
       <c r="M18" t="n">
-        <v>340.4842964859946</v>
+        <v>724.5016862774437</v>
       </c>
       <c r="N18" t="n">
-        <v>639.5259301557401</v>
+        <v>724.5016862774437</v>
       </c>
       <c r="O18" t="n">
-        <v>917.3211675856852</v>
+        <v>1002.296923707389</v>
       </c>
       <c r="P18" t="n">
-        <v>1123.273268806561</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="Q18" t="n">
         <v>1208.249024928265</v>
       </c>
       <c r="R18" t="n">
-        <v>1141.056678042152</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="S18" t="n">
-        <v>969.9526293458078</v>
+        <v>1169.654448216713</v>
       </c>
       <c r="T18" t="n">
-        <v>900.7774946206289</v>
+        <v>967.9698415067411</v>
       </c>
       <c r="U18" t="n">
-        <v>805.071541833616</v>
+        <v>739.7544167349353</v>
       </c>
       <c r="V18" t="n">
-        <v>702.4289055866662</v>
+        <v>637.1117804879855</v>
       </c>
       <c r="W18" t="n">
-        <v>580.7010208432575</v>
+        <v>382.8744237597838</v>
       </c>
       <c r="X18" t="n">
-        <v>505.3589926225177</v>
+        <v>307.5323955390439</v>
       </c>
       <c r="Y18" t="n">
-        <v>430.1081658423567</v>
+        <v>232.2815687588829</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>196.8562651276389</v>
+        <v>196.8562651276386</v>
       </c>
       <c r="C19" t="n">
-        <v>160.4295541845249</v>
+        <v>160.4295541845246</v>
       </c>
       <c r="D19" t="n">
-        <v>142.8223867569821</v>
+        <v>142.8223867569819</v>
       </c>
       <c r="E19" t="n">
-        <v>127.4187651593819</v>
+        <v>127.4187651593817</v>
       </c>
       <c r="F19" t="n">
-        <v>113.0382896462645</v>
+        <v>113.0382896462641</v>
       </c>
       <c r="G19" t="n">
-        <v>75.96431474726185</v>
+        <v>75.96431474726141</v>
       </c>
       <c r="H19" t="n">
-        <v>45.53626510602821</v>
+        <v>45.53626510602822</v>
       </c>
       <c r="I19" t="n">
         <v>24.16498049856529</v>
@@ -5688,7 +5688,7 @@
         <v>735.287659557119</v>
       </c>
       <c r="O19" t="n">
-        <v>903.9638128223145</v>
+        <v>903.9638128223144</v>
       </c>
       <c r="P19" t="n">
         <v>1043.518864333906</v>
@@ -5700,25 +5700,25 @@
         <v>1054.779930193073</v>
       </c>
       <c r="S19" t="n">
-        <v>962.8296101358527</v>
+        <v>962.8296101358525</v>
       </c>
       <c r="T19" t="n">
-        <v>865.5371319492459</v>
+        <v>865.5371319492457</v>
       </c>
       <c r="U19" t="n">
-        <v>708.8411583183089</v>
+        <v>708.8411583183087</v>
       </c>
       <c r="V19" t="n">
-        <v>586.6661420972149</v>
+        <v>586.6661420972147</v>
       </c>
       <c r="W19" t="n">
-        <v>429.7584440450472</v>
+        <v>429.758444045047</v>
       </c>
       <c r="X19" t="n">
-        <v>334.2783651318228</v>
+        <v>334.2783651318226</v>
       </c>
       <c r="Y19" t="n">
-        <v>245.9952579730856</v>
+        <v>245.9952579730854</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>260.6180254541841</v>
+        <v>498.6893875497975</v>
       </c>
       <c r="C20" t="n">
-        <v>24.16498049856529</v>
+        <v>498.6893875497975</v>
       </c>
       <c r="D20" t="n">
-        <v>24.16498049856529</v>
+        <v>272.9331609278399</v>
       </c>
       <c r="E20" t="n">
-        <v>24.16498049856529</v>
+        <v>272.9331609278399</v>
       </c>
       <c r="F20" t="n">
         <v>24.16498049856529</v>
@@ -5752,16 +5752,16 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J20" t="n">
-        <v>31.69781288741919</v>
+        <v>31.69781288741909</v>
       </c>
       <c r="K20" t="n">
-        <v>163.7323802006365</v>
+        <v>163.7323802006364</v>
       </c>
       <c r="L20" t="n">
-        <v>379.8095637899936</v>
+        <v>379.8095637899935</v>
       </c>
       <c r="M20" t="n">
-        <v>636.8436096221674</v>
+        <v>636.8436096221672</v>
       </c>
       <c r="N20" t="n">
         <v>883.4047374909144</v>
@@ -5776,28 +5776,28 @@
         <v>1208.249024928265</v>
       </c>
       <c r="R20" t="n">
-        <v>1208.249024928265</v>
+        <v>1203.997070311996</v>
       </c>
       <c r="S20" t="n">
-        <v>1208.249024928265</v>
+        <v>1130.679326278159</v>
       </c>
       <c r="T20" t="n">
-        <v>1208.249024928265</v>
+        <v>1038.858390773058</v>
       </c>
       <c r="U20" t="n">
-        <v>1178.016770365589</v>
+        <v>917.5019861938964</v>
       </c>
       <c r="V20" t="n">
-        <v>979.4633550068111</v>
+        <v>718.9485708351187</v>
       </c>
       <c r="W20" t="n">
-        <v>759.2041717214898</v>
+        <v>498.6893875497975</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2478854452029</v>
+        <v>498.6893875497975</v>
       </c>
       <c r="Y20" t="n">
-        <v>260.6180254541841</v>
+        <v>498.6893875497975</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>394.4023008070815</v>
+        <v>129.3833568374957</v>
       </c>
       <c r="C21" t="n">
-        <v>352.4587435107475</v>
+        <v>87.43979954116162</v>
       </c>
       <c r="D21" t="n">
-        <v>203.5243338494962</v>
+        <v>71.01486186470328</v>
       </c>
       <c r="E21" t="n">
-        <v>176.7963508288336</v>
+        <v>44.28687884404071</v>
       </c>
       <c r="F21" t="n">
-        <v>162.7712648405115</v>
+        <v>30.2617928557186</v>
       </c>
       <c r="G21" t="n">
         <v>24.16498049856529</v>
@@ -5834,49 +5834,49 @@
         <v>34.95810418129544</v>
       </c>
       <c r="K21" t="n">
-        <v>34.95810418129544</v>
+        <v>180.0261147733385</v>
       </c>
       <c r="L21" t="n">
-        <v>291.4243432135593</v>
+        <v>436.4923538056023</v>
       </c>
       <c r="M21" t="n">
-        <v>590.4659768833047</v>
+        <v>735.5339874753478</v>
       </c>
       <c r="N21" t="n">
-        <v>639.5259301557401</v>
+        <v>1034.575621145093</v>
       </c>
       <c r="O21" t="n">
-        <v>917.3211675856852</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="P21" t="n">
-        <v>1123.273268806561</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="Q21" t="n">
         <v>1208.249024928265</v>
       </c>
       <c r="R21" t="n">
-        <v>1141.056678042152</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="S21" t="n">
-        <v>1102.462101330601</v>
+        <v>1169.654448216713</v>
       </c>
       <c r="T21" t="n">
-        <v>1033.286966605422</v>
+        <v>1100.479313491534</v>
       </c>
       <c r="U21" t="n">
-        <v>937.5810138184089</v>
+        <v>1004.773360704521</v>
       </c>
       <c r="V21" t="n">
-        <v>834.9383775714591</v>
+        <v>769.6212524727785</v>
       </c>
       <c r="W21" t="n">
-        <v>713.2104928280504</v>
+        <v>515.3838957445769</v>
       </c>
       <c r="X21" t="n">
-        <v>637.8684646073106</v>
+        <v>307.532395539044</v>
       </c>
       <c r="Y21" t="n">
-        <v>430.1081658423566</v>
+        <v>165.0892218727708</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>196.8562651276387</v>
+        <v>196.8562651276384</v>
       </c>
       <c r="C22" t="n">
-        <v>160.4295541845247</v>
+        <v>160.4295541845244</v>
       </c>
       <c r="D22" t="n">
-        <v>142.822386756982</v>
+        <v>142.8223867569816</v>
       </c>
       <c r="E22" t="n">
-        <v>127.4187651593818</v>
+        <v>127.4187651593815</v>
       </c>
       <c r="F22" t="n">
-        <v>113.0382896462644</v>
+        <v>113.038289646264</v>
       </c>
       <c r="G22" t="n">
-        <v>75.96431474726171</v>
+        <v>75.96431474726137</v>
       </c>
       <c r="H22" t="n">
         <v>45.53626510602821</v>
@@ -5910,22 +5910,22 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J22" t="n">
-        <v>68.84688815182962</v>
+        <v>68.84688815182963</v>
       </c>
       <c r="K22" t="n">
-        <v>188.5618905780015</v>
+        <v>188.5618905780014</v>
       </c>
       <c r="L22" t="n">
-        <v>360.962716024168</v>
+        <v>360.9627160241678</v>
       </c>
       <c r="M22" t="n">
-        <v>546.0644935697961</v>
+        <v>546.0644935697958</v>
       </c>
       <c r="N22" t="n">
-        <v>735.2876595571192</v>
+        <v>735.2876595571188</v>
       </c>
       <c r="O22" t="n">
-        <v>903.9638128223146</v>
+        <v>903.9638128223143</v>
       </c>
       <c r="P22" t="n">
         <v>1043.518864333906</v>
@@ -5937,10 +5937,10 @@
         <v>1054.779930193073</v>
       </c>
       <c r="S22" t="n">
-        <v>962.8296101358528</v>
+        <v>962.8296101358525</v>
       </c>
       <c r="T22" t="n">
-        <v>865.537131949246</v>
+        <v>865.5371319492457</v>
       </c>
       <c r="U22" t="n">
         <v>708.8411583183088</v>
@@ -5949,13 +5949,13 @@
         <v>586.6661420972148</v>
       </c>
       <c r="W22" t="n">
-        <v>429.7584440450471</v>
+        <v>429.758444045047</v>
       </c>
       <c r="X22" t="n">
-        <v>334.2783651318227</v>
+        <v>334.2783651318226</v>
       </c>
       <c r="Y22" t="n">
-        <v>245.9952579730855</v>
+        <v>245.9952579730852</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>411.8339967255317</v>
+        <v>518.9310049072899</v>
       </c>
       <c r="C23" t="n">
-        <v>277.4437611120166</v>
+        <v>518.9310049072899</v>
       </c>
       <c r="D23" t="n">
-        <v>277.4437611120166</v>
+        <v>518.9310049072899</v>
       </c>
       <c r="E23" t="n">
-        <v>24.16498049856529</v>
+        <v>518.9310049072899</v>
       </c>
       <c r="F23" t="n">
-        <v>24.16498049856529</v>
+        <v>518.9310049072899</v>
       </c>
       <c r="G23" t="n">
-        <v>24.16498049856529</v>
+        <v>232.1755287646941</v>
       </c>
       <c r="H23" t="n">
         <v>24.16498049856529</v>
@@ -5989,13 +5989,13 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J23" t="n">
-        <v>31.69781288741919</v>
+        <v>31.69781288741909</v>
       </c>
       <c r="K23" t="n">
-        <v>163.7323802006365</v>
+        <v>163.7323802006364</v>
       </c>
       <c r="L23" t="n">
-        <v>379.8095637899936</v>
+        <v>379.8095637899937</v>
       </c>
       <c r="M23" t="n">
         <v>636.8436096221674</v>
@@ -6019,22 +6019,22 @@
         <v>1130.679326278159</v>
       </c>
       <c r="T23" t="n">
-        <v>1130.679326278159</v>
+        <v>1038.858390773058</v>
       </c>
       <c r="U23" t="n">
-        <v>1130.679326278159</v>
+        <v>917.5019861938964</v>
       </c>
       <c r="V23" t="n">
-        <v>1130.679326278159</v>
+        <v>718.9485708351187</v>
       </c>
       <c r="W23" t="n">
-        <v>910.4201429928374</v>
+        <v>518.9310049072899</v>
       </c>
       <c r="X23" t="n">
-        <v>669.4638567165505</v>
+        <v>518.9310049072899</v>
       </c>
       <c r="Y23" t="n">
-        <v>411.8339967255317</v>
+        <v>518.9310049072899</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>129.3833568374957</v>
+        <v>461.5946476931937</v>
       </c>
       <c r="C24" t="n">
-        <v>87.43979954116162</v>
+        <v>419.6510903968596</v>
       </c>
       <c r="D24" t="n">
-        <v>71.01486186470328</v>
+        <v>403.2261527204013</v>
       </c>
       <c r="E24" t="n">
-        <v>44.28687884404071</v>
+        <v>243.9886977149458</v>
       </c>
       <c r="F24" t="n">
-        <v>30.2617928557186</v>
+        <v>97.45413974183074</v>
       </c>
       <c r="G24" t="n">
         <v>24.16498049856529</v>
@@ -6068,52 +6068,52 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J24" t="n">
-        <v>24.16498049856529</v>
+        <v>34.95810418129544</v>
       </c>
       <c r="K24" t="n">
-        <v>169.2329910906083</v>
+        <v>180.0261147733385</v>
       </c>
       <c r="L24" t="n">
-        <v>425.4600526076982</v>
+        <v>436.4923538056023</v>
       </c>
       <c r="M24" t="n">
-        <v>425.4600526076982</v>
+        <v>639.5259301557401</v>
       </c>
       <c r="N24" t="n">
-        <v>724.5016862774437</v>
+        <v>639.5259301557401</v>
       </c>
       <c r="O24" t="n">
-        <v>1002.296923707389</v>
+        <v>917.3211675856852</v>
       </c>
       <c r="P24" t="n">
-        <v>1208.249024928265</v>
+        <v>1123.273268806561</v>
       </c>
       <c r="Q24" t="n">
         <v>1208.249024928265</v>
       </c>
       <c r="R24" t="n">
-        <v>1114.811966814061</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="S24" t="n">
-        <v>1076.21739010251</v>
+        <v>1169.654448216713</v>
       </c>
       <c r="T24" t="n">
-        <v>874.5327833925379</v>
+        <v>1100.479313491534</v>
       </c>
       <c r="U24" t="n">
-        <v>672.5620698488232</v>
+        <v>1004.773360704521</v>
       </c>
       <c r="V24" t="n">
-        <v>569.9194336018734</v>
+        <v>902.1307244575713</v>
       </c>
       <c r="W24" t="n">
-        <v>315.6820768736717</v>
+        <v>780.4028397141626</v>
       </c>
       <c r="X24" t="n">
-        <v>240.3400486529318</v>
+        <v>572.5513395086298</v>
       </c>
       <c r="Y24" t="n">
-        <v>165.0892218727708</v>
+        <v>497.3005127284688</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>308.4452987995781</v>
+        <v>196.8562651276384</v>
       </c>
       <c r="C25" t="n">
-        <v>272.0185878564641</v>
+        <v>160.4295541845244</v>
       </c>
       <c r="D25" t="n">
-        <v>254.4114204289214</v>
+        <v>142.8223867569816</v>
       </c>
       <c r="E25" t="n">
-        <v>239.0077988313212</v>
+        <v>127.4187651593815</v>
       </c>
       <c r="F25" t="n">
-        <v>224.6273233182038</v>
+        <v>113.0382896462641</v>
       </c>
       <c r="G25" t="n">
-        <v>187.5533484192011</v>
+        <v>75.96431474726141</v>
       </c>
       <c r="H25" t="n">
-        <v>157.1252987779679</v>
+        <v>45.53626510602822</v>
       </c>
       <c r="I25" t="n">
-        <v>135.754014170505</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="J25" t="n">
-        <v>180.4359218237693</v>
+        <v>68.84688815182963</v>
       </c>
       <c r="K25" t="n">
-        <v>300.1509242499412</v>
+        <v>188.5618905780015</v>
       </c>
       <c r="L25" t="n">
-        <v>472.5517496961075</v>
+        <v>360.9627160241679</v>
       </c>
       <c r="M25" t="n">
-        <v>657.6535272417357</v>
+        <v>546.064493569796</v>
       </c>
       <c r="N25" t="n">
-        <v>846.8766932290587</v>
+        <v>735.287659557119</v>
       </c>
       <c r="O25" t="n">
-        <v>1015.552846494254</v>
+        <v>903.9638128223144</v>
       </c>
       <c r="P25" t="n">
-        <v>1155.107898005846</v>
+        <v>1043.518864333906</v>
       </c>
       <c r="Q25" t="n">
-        <v>1208.249024928265</v>
+        <v>1096.659991256324</v>
       </c>
       <c r="R25" t="n">
-        <v>1166.368963865013</v>
+        <v>1054.779930193073</v>
       </c>
       <c r="S25" t="n">
-        <v>1074.418643807792</v>
+        <v>962.8296101358522</v>
       </c>
       <c r="T25" t="n">
-        <v>977.1261656211851</v>
+        <v>865.5371319492455</v>
       </c>
       <c r="U25" t="n">
-        <v>820.4301919902481</v>
+        <v>708.8411583183084</v>
       </c>
       <c r="V25" t="n">
-        <v>698.2551757691541</v>
+        <v>586.6661420972144</v>
       </c>
       <c r="W25" t="n">
-        <v>541.3474777169864</v>
+        <v>429.7584440450468</v>
       </c>
       <c r="X25" t="n">
-        <v>445.867398803762</v>
+        <v>334.2783651318223</v>
       </c>
       <c r="Y25" t="n">
-        <v>357.5842916450248</v>
+        <v>245.9952579730852</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>684.9317470052362</v>
+        <v>786.642677434706</v>
       </c>
       <c r="C26" t="n">
-        <v>395.8886951173408</v>
+        <v>786.642677434706</v>
       </c>
       <c r="D26" t="n">
-        <v>117.5424615631066</v>
+        <v>786.642677434706</v>
       </c>
       <c r="E26" t="n">
-        <v>29.69163402909592</v>
+        <v>786.642677434706</v>
       </c>
       <c r="F26" t="n">
-        <v>29.69163402909592</v>
+        <v>753.3463840907657</v>
       </c>
       <c r="G26" t="n">
-        <v>29.69163402909592</v>
+        <v>414.0009010158934</v>
       </c>
       <c r="H26" t="n">
-        <v>29.69163402909592</v>
+        <v>153.4003458174878</v>
       </c>
       <c r="I26" t="n">
-        <v>29.69163402909592</v>
+        <v>29.69163402909593</v>
       </c>
       <c r="J26" t="n">
-        <v>115.5535341159208</v>
+        <v>115.5535341159209</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5881014291381</v>
+        <v>325.9171691271096</v>
       </c>
       <c r="L26" t="n">
-        <v>463.6652850184952</v>
+        <v>541.9943527164669</v>
       </c>
       <c r="M26" t="n">
-        <v>756.5181507527564</v>
+        <v>799.0283985486408</v>
       </c>
       <c r="N26" t="n">
-        <v>1003.079278621503</v>
+        <v>1045.589526417388</v>
       </c>
       <c r="O26" t="n">
-        <v>1269.041389884847</v>
+        <v>1233.22256998276</v>
       </c>
       <c r="P26" t="n">
-        <v>1391.507468616473</v>
+        <v>1434.017716412357</v>
       </c>
       <c r="Q26" t="n">
         <v>1484.581701454796</v>
       </c>
       <c r="R26" t="n">
-        <v>1427.739739906251</v>
+        <v>1484.581701454796</v>
       </c>
       <c r="S26" t="n">
-        <v>1301.831988940137</v>
+        <v>1484.581701454796</v>
       </c>
       <c r="T26" t="n">
-        <v>1301.831988940137</v>
+        <v>1484.581701454796</v>
       </c>
       <c r="U26" t="n">
-        <v>1301.831988940137</v>
+        <v>1310.635289943358</v>
       </c>
       <c r="V26" t="n">
-        <v>1301.831988940137</v>
+        <v>1059.491867652304</v>
       </c>
       <c r="W26" t="n">
-        <v>1301.831988940137</v>
+        <v>786.642677434706</v>
       </c>
       <c r="X26" t="n">
-        <v>1301.831988940137</v>
+        <v>786.642677434706</v>
       </c>
       <c r="Y26" t="n">
-        <v>991.6121220168417</v>
+        <v>786.642677434706</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>436.1991476846182</v>
+        <v>436.1991476846183</v>
       </c>
       <c r="C27" t="n">
         <v>341.6655834560075</v>
       </c>
       <c r="D27" t="n">
-        <v>272.6506388472725</v>
+        <v>272.6506388472727</v>
       </c>
       <c r="E27" t="n">
-        <v>193.3326488943334</v>
+        <v>193.3326488943335</v>
       </c>
       <c r="F27" t="n">
         <v>126.7175559737347</v>
       </c>
       <c r="G27" t="n">
-        <v>68.03073668430477</v>
+        <v>68.0307366843048</v>
       </c>
       <c r="H27" t="n">
-        <v>35.78387074139604</v>
+        <v>35.78387074139606</v>
       </c>
       <c r="I27" t="n">
-        <v>29.69163402909592</v>
+        <v>29.69163402909593</v>
       </c>
       <c r="J27" t="n">
         <v>40.48475771182607</v>
@@ -6320,10 +6320,10 @@
         <v>1160.716204306153</v>
       </c>
       <c r="O27" t="n">
-        <v>1399.605945333092</v>
+        <v>1193.653844112217</v>
       </c>
       <c r="P27" t="n">
-        <v>1399.605945333092</v>
+        <v>1399.605945333093</v>
       </c>
       <c r="Q27" t="n">
         <v>1484.581701454796</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.69163402909592</v>
+        <v>208.3723337357658</v>
       </c>
       <c r="C28" t="n">
-        <v>29.69163402909592</v>
+        <v>119.3556158603752</v>
       </c>
       <c r="D28" t="n">
-        <v>29.69163402909592</v>
+        <v>119.3556158603752</v>
       </c>
       <c r="E28" t="n">
-        <v>29.69163402909592</v>
+        <v>119.3556158603752</v>
       </c>
       <c r="F28" t="n">
-        <v>29.69163402909592</v>
+        <v>119.3556158603752</v>
       </c>
       <c r="G28" t="n">
-        <v>29.69163402909592</v>
+        <v>29.69163402909593</v>
       </c>
       <c r="H28" t="n">
-        <v>29.69163402909592</v>
+        <v>29.69163402909593</v>
       </c>
       <c r="I28" t="n">
-        <v>29.69163402909592</v>
+        <v>29.69163402909593</v>
       </c>
       <c r="J28" t="n">
-        <v>29.69163402909592</v>
+        <v>29.69163402909593</v>
       </c>
       <c r="K28" t="n">
-        <v>97.8631706609435</v>
+        <v>97.86317066094347</v>
       </c>
       <c r="L28" t="n">
         <v>218.7205303127855</v>
       </c>
       <c r="M28" t="n">
-        <v>352.2788420640894</v>
+        <v>352.2788420640893</v>
       </c>
       <c r="N28" t="n">
         <v>489.9585422570881</v>
@@ -6417,19 +6417,19 @@
         <v>696.700476573321</v>
       </c>
       <c r="U28" t="n">
-        <v>487.4144960101074</v>
+        <v>696.700476573321</v>
       </c>
       <c r="V28" t="n">
-        <v>487.4144960101074</v>
+        <v>521.9354534199504</v>
       </c>
       <c r="W28" t="n">
-        <v>279.4907196523203</v>
+        <v>312.437748435506</v>
       </c>
       <c r="X28" t="n">
-        <v>131.4206338068193</v>
+        <v>312.437748435506</v>
       </c>
       <c r="Y28" t="n">
-        <v>131.4206338068193</v>
+        <v>310.1013335134892</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>624.6034734627192</v>
+        <v>339.882140785543</v>
       </c>
       <c r="C29" t="n">
-        <v>335.5604215748239</v>
+        <v>339.882140785543</v>
       </c>
       <c r="D29" t="n">
-        <v>335.5604215748239</v>
+        <v>339.882140785543</v>
       </c>
       <c r="E29" t="n">
-        <v>29.69163402909593</v>
+        <v>339.882140785543</v>
       </c>
       <c r="F29" t="n">
-        <v>29.69163402909593</v>
+        <v>290.2921892275016</v>
       </c>
       <c r="G29" t="n">
-        <v>29.69163402909593</v>
+        <v>290.2921892275016</v>
       </c>
       <c r="H29" t="n">
-        <v>29.69163402909593</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="I29" t="n">
-        <v>29.69163402909593</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="J29" t="n">
-        <v>73.04328632003708</v>
+        <v>115.5535341159208</v>
       </c>
       <c r="K29" t="n">
-        <v>205.0778536332545</v>
+        <v>325.9171691271093</v>
       </c>
       <c r="L29" t="n">
-        <v>499.4841049205828</v>
+        <v>620.3234204144375</v>
       </c>
       <c r="M29" t="n">
-        <v>834.8472184507278</v>
+        <v>913.1762861486988</v>
       </c>
       <c r="N29" t="n">
-        <v>1081.408346319475</v>
+        <v>1159.737414017446</v>
       </c>
       <c r="O29" t="n">
-        <v>1269.041389884848</v>
+        <v>1347.370457582819</v>
       </c>
       <c r="P29" t="n">
-        <v>1391.507468616473</v>
+        <v>1469.836536314444</v>
       </c>
       <c r="Q29" t="n">
-        <v>1484.581701454797</v>
+        <v>1484.581701454796</v>
       </c>
       <c r="R29" t="n">
-        <v>1484.581701454797</v>
+        <v>1427.739739906251</v>
       </c>
       <c r="S29" t="n">
-        <v>1484.581701454797</v>
+        <v>1301.831988940137</v>
       </c>
       <c r="T29" t="n">
-        <v>1484.581701454797</v>
+        <v>1157.421046502759</v>
       </c>
       <c r="U29" t="n">
-        <v>1484.581701454797</v>
+        <v>1157.421046502759</v>
       </c>
       <c r="V29" t="n">
-        <v>1484.581701454797</v>
+        <v>906.2776242117046</v>
       </c>
       <c r="W29" t="n">
-        <v>1484.581701454797</v>
+        <v>633.4284339941066</v>
       </c>
       <c r="X29" t="n">
-        <v>1241.50371539762</v>
+        <v>339.882140785543</v>
       </c>
       <c r="Y29" t="n">
-        <v>931.2838484743247</v>
+        <v>339.882140785543</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>436.1991476846181</v>
+        <v>436.1991476846172</v>
       </c>
       <c r="C30" t="n">
-        <v>341.6655834560074</v>
+        <v>341.6655834560064</v>
       </c>
       <c r="D30" t="n">
-        <v>272.6506388472725</v>
+        <v>272.6506388472733</v>
       </c>
       <c r="E30" t="n">
-        <v>193.3326488943333</v>
+        <v>193.3326488943339</v>
       </c>
       <c r="F30" t="n">
-        <v>126.7175559737346</v>
+        <v>126.7175559737351</v>
       </c>
       <c r="G30" t="n">
-        <v>68.03073668430471</v>
+        <v>68.03073668430504</v>
       </c>
       <c r="H30" t="n">
-        <v>35.78387074139604</v>
+        <v>35.78387074139618</v>
       </c>
       <c r="I30" t="n">
-        <v>29.69163402909593</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="J30" t="n">
-        <v>29.69163402909593</v>
+        <v>40.48475771182606</v>
       </c>
       <c r="K30" t="n">
-        <v>174.7596446211389</v>
+        <v>185.5527683038691</v>
       </c>
       <c r="L30" t="n">
-        <v>431.2258836534028</v>
+        <v>442.0190073361329</v>
       </c>
       <c r="M30" t="n">
-        <v>782.4891095133612</v>
+        <v>793.2822331960913</v>
       </c>
       <c r="N30" t="n">
-        <v>1000.834362803976</v>
+        <v>1000.834362803975</v>
       </c>
       <c r="O30" t="n">
-        <v>1278.629600233921</v>
+        <v>1278.62960023392</v>
       </c>
       <c r="P30" t="n">
-        <v>1484.581701454797</v>
+        <v>1484.581701454796</v>
       </c>
       <c r="Q30" t="n">
-        <v>1484.581701454797</v>
+        <v>1484.581701454796</v>
       </c>
       <c r="R30" t="n">
-        <v>1471.06410839311</v>
+        <v>1471.064108393109</v>
       </c>
       <c r="S30" t="n">
         <v>1379.879524749281</v>
@@ -6581,13 +6581,13 @@
         <v>954.5857801933091</v>
       </c>
       <c r="W30" t="n">
-        <v>780.2678885176239</v>
+        <v>780.2678885176236</v>
       </c>
       <c r="X30" t="n">
-        <v>652.3358533646074</v>
+        <v>652.335853364607</v>
       </c>
       <c r="Y30" t="n">
-        <v>524.4950196521697</v>
+        <v>524.495019652169</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>173.8601663991088</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="C31" t="n">
-        <v>173.8601663991088</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="D31" t="n">
-        <v>103.6629920392894</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="E31" t="n">
-        <v>103.6629920392894</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="F31" t="n">
-        <v>36.69250959389541</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="G31" t="n">
-        <v>36.69250959389541</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="H31" t="n">
-        <v>36.69250959389541</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="I31" t="n">
-        <v>36.69250959389541</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="J31" t="n">
-        <v>29.69163402909593</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="K31" t="n">
-        <v>97.8631706609435</v>
+        <v>97.86317066094335</v>
       </c>
       <c r="L31" t="n">
-        <v>218.7205303127855</v>
+        <v>218.7205303127853</v>
       </c>
       <c r="M31" t="n">
-        <v>352.2788420640894</v>
+        <v>352.278842064089</v>
       </c>
       <c r="N31" t="n">
-        <v>489.9585422570881</v>
+        <v>489.9585422570876</v>
       </c>
       <c r="O31" t="n">
-        <v>607.0912297279592</v>
+        <v>607.0912297279586</v>
       </c>
       <c r="P31" t="n">
-        <v>695.1028154452267</v>
+        <v>695.102815445226</v>
       </c>
       <c r="Q31" t="n">
-        <v>696.700476573321</v>
+        <v>696.7004765733202</v>
       </c>
       <c r="R31" t="n">
-        <v>602.2304085777929</v>
+        <v>696.7004765733202</v>
       </c>
       <c r="S31" t="n">
-        <v>602.2304085777929</v>
+        <v>552.1601495838229</v>
       </c>
       <c r="T31" t="n">
-        <v>602.2304085777929</v>
+        <v>552.1601495838229</v>
       </c>
       <c r="U31" t="n">
-        <v>602.2304085777929</v>
+        <v>552.1601495838229</v>
       </c>
       <c r="V31" t="n">
-        <v>485.0868711612766</v>
+        <v>377.3951264304522</v>
       </c>
       <c r="W31" t="n">
-        <v>275.5891661768322</v>
+        <v>177.761719874597</v>
       </c>
       <c r="X31" t="n">
-        <v>275.5891661768322</v>
+        <v>29.69163402909592</v>
       </c>
       <c r="Y31" t="n">
-        <v>275.5891661768322</v>
+        <v>29.69163402909592</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>905.870731177773</v>
+        <v>945.3572904176027</v>
       </c>
       <c r="C32" t="n">
-        <v>905.870731177773</v>
+        <v>708.9042454619839</v>
       </c>
       <c r="D32" t="n">
-        <v>680.1145045558154</v>
+        <v>483.1480188400263</v>
       </c>
       <c r="E32" t="n">
-        <v>426.8357239423641</v>
+        <v>483.1480188400263</v>
       </c>
       <c r="F32" t="n">
-        <v>148.3592911375495</v>
+        <v>204.6715860352118</v>
       </c>
       <c r="G32" t="n">
-        <v>29.14155036975902</v>
+        <v>29.14155036975901</v>
       </c>
       <c r="H32" t="n">
-        <v>29.14155036975902</v>
+        <v>29.14155036975901</v>
       </c>
       <c r="I32" t="n">
-        <v>29.14155036975902</v>
+        <v>29.14155036975901</v>
       </c>
       <c r="J32" t="n">
-        <v>36.67438275861281</v>
+        <v>36.6743827586128</v>
       </c>
       <c r="K32" t="n">
-        <v>298.5814835641257</v>
+        <v>168.7089500718301</v>
       </c>
       <c r="L32" t="n">
-        <v>514.6586671534827</v>
+        <v>384.7861336611873</v>
       </c>
       <c r="M32" t="n">
-        <v>875.2853529792505</v>
+        <v>641.8201794933609</v>
       </c>
       <c r="N32" t="n">
-        <v>1132.233231050601</v>
+        <v>888.3813073621079</v>
       </c>
       <c r="O32" t="n">
-        <v>1319.866274615973</v>
+        <v>1205.886884419776</v>
       </c>
       <c r="P32" t="n">
-        <v>1442.332353347599</v>
+        <v>1442.332353347598</v>
       </c>
       <c r="Q32" t="n">
-        <v>1457.077518487951</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="R32" t="n">
-        <v>1457.077518487951</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="S32" t="n">
-        <v>1383.759774454113</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="T32" t="n">
-        <v>1383.759774454113</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="U32" t="n">
-        <v>1383.759774454113</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="V32" t="n">
-        <v>1383.759774454113</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="W32" t="n">
-        <v>1163.500591168792</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="X32" t="n">
-        <v>1163.500591168792</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="Y32" t="n">
-        <v>905.870731177773</v>
+        <v>1199.447658496932</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>219.457667184298</v>
+        <v>220.3716284735059</v>
       </c>
       <c r="C33" t="n">
-        <v>177.5141098879639</v>
+        <v>178.4280711771718</v>
       </c>
       <c r="D33" t="n">
-        <v>161.0891722115056</v>
+        <v>162.0031335007134</v>
       </c>
       <c r="E33" t="n">
-        <v>134.361189190843</v>
+        <v>135.2751504800509</v>
       </c>
       <c r="F33" t="n">
-        <v>120.3361032025209</v>
+        <v>121.2500644917288</v>
       </c>
       <c r="G33" t="n">
-        <v>114.2392908453676</v>
+        <v>115.1532521345754</v>
       </c>
       <c r="H33" t="n">
-        <v>114.2392908453676</v>
+        <v>115.1532521345754</v>
       </c>
       <c r="I33" t="n">
-        <v>29.14155036975902</v>
+        <v>29.14155036975901</v>
       </c>
       <c r="J33" t="n">
-        <v>29.14155036975902</v>
+        <v>29.14155036975901</v>
       </c>
       <c r="K33" t="n">
         <v>174.209560961802</v>
       </c>
       <c r="L33" t="n">
-        <v>261.4402681514038</v>
+        <v>430.6757999940659</v>
       </c>
       <c r="M33" t="n">
-        <v>612.7034940113622</v>
+        <v>781.9390258540243</v>
       </c>
       <c r="N33" t="n">
-        <v>973.33017983713</v>
+        <v>973.3301798371295</v>
       </c>
       <c r="O33" t="n">
         <v>1251.125417267075</v>
       </c>
       <c r="P33" t="n">
-        <v>1457.077518487951</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="Q33" t="n">
-        <v>1457.077518487951</v>
+        <v>1457.07751848795</v>
       </c>
       <c r="R33" t="n">
-        <v>1363.640460373748</v>
+        <v>1364.554421662956</v>
       </c>
       <c r="S33" t="n">
-        <v>1192.536411677403</v>
+        <v>1325.959844951404</v>
       </c>
       <c r="T33" t="n">
-        <v>990.8518049674311</v>
+        <v>1256.784710226225</v>
       </c>
       <c r="U33" t="n">
-        <v>895.1458521804183</v>
+        <v>1161.078757439212</v>
       </c>
       <c r="V33" t="n">
-        <v>792.5032159334685</v>
+        <v>925.9266492074694</v>
       </c>
       <c r="W33" t="n">
-        <v>538.2658592052669</v>
+        <v>671.6892924792677</v>
       </c>
       <c r="X33" t="n">
-        <v>462.9238309845271</v>
+        <v>463.8377922737349</v>
       </c>
       <c r="Y33" t="n">
-        <v>255.1635322195731</v>
+        <v>256.0774935087809</v>
       </c>
     </row>
     <row r="34">
@@ -6855,10 +6855,10 @@
         <v>50.51283497722193</v>
       </c>
       <c r="I34" t="n">
-        <v>29.14155036975902</v>
+        <v>29.14155036975901</v>
       </c>
       <c r="J34" t="n">
-        <v>73.82345802302329</v>
+        <v>73.82345802302333</v>
       </c>
       <c r="K34" t="n">
         <v>193.5384604491952</v>
@@ -6867,10 +6867,10 @@
         <v>365.9392858953615</v>
       </c>
       <c r="M34" t="n">
-        <v>551.0410634409894</v>
+        <v>551.0410634409897</v>
       </c>
       <c r="N34" t="n">
-        <v>740.2642294283125</v>
+        <v>740.2642294283128</v>
       </c>
       <c r="O34" t="n">
         <v>908.9403826935079</v>
@@ -6888,19 +6888,19 @@
         <v>967.806180007046</v>
       </c>
       <c r="T34" t="n">
-        <v>870.5137018204393</v>
+        <v>870.5137018204392</v>
       </c>
       <c r="U34" t="n">
-        <v>713.8177281895023</v>
+        <v>713.8177281895022</v>
       </c>
       <c r="V34" t="n">
-        <v>591.6427119684083</v>
+        <v>591.6427119684082</v>
       </c>
       <c r="W34" t="n">
-        <v>434.7350139162406</v>
+        <v>434.7350139162405</v>
       </c>
       <c r="X34" t="n">
-        <v>339.2549350030163</v>
+        <v>339.2549350030161</v>
       </c>
       <c r="Y34" t="n">
         <v>250.9718278442789</v>
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>585.0155109237506</v>
+        <v>457.9317553866517</v>
       </c>
       <c r="C35" t="n">
-        <v>348.5624659681319</v>
+        <v>457.9317553866517</v>
       </c>
       <c r="D35" t="n">
-        <v>348.5624659681319</v>
+        <v>232.1755287646941</v>
       </c>
       <c r="E35" t="n">
-        <v>95.28368535468059</v>
+        <v>232.1755287646941</v>
       </c>
       <c r="F35" t="n">
-        <v>95.28368535468059</v>
+        <v>232.1755287646941</v>
       </c>
       <c r="G35" t="n">
-        <v>95.28368535468059</v>
+        <v>232.1755287646941</v>
       </c>
       <c r="H35" t="n">
-        <v>95.28368535468059</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="I35" t="n">
         <v>24.16498049856529</v>
       </c>
       <c r="J35" t="n">
-        <v>31.69781288741905</v>
+        <v>31.69781288741909</v>
       </c>
       <c r="K35" t="n">
         <v>163.7323802006364</v>
@@ -6946,16 +6946,16 @@
         <v>379.8095637899935</v>
       </c>
       <c r="M35" t="n">
-        <v>636.8436096221674</v>
+        <v>636.8436096221672</v>
       </c>
       <c r="N35" t="n">
-        <v>883.4047374909143</v>
+        <v>883.4047374909142</v>
       </c>
       <c r="O35" t="n">
         <v>1071.037781056287</v>
       </c>
       <c r="P35" t="n">
-        <v>1193.503859787913</v>
+        <v>1193.503859787912</v>
       </c>
       <c r="Q35" t="n">
         <v>1208.249024928265</v>
@@ -6964,25 +6964,25 @@
         <v>1203.997070311996</v>
       </c>
       <c r="S35" t="n">
-        <v>1130.679326278159</v>
+        <v>1203.997070311996</v>
       </c>
       <c r="T35" t="n">
-        <v>1038.858390773058</v>
+        <v>1203.997070311996</v>
       </c>
       <c r="U35" t="n">
-        <v>917.5019861938964</v>
+        <v>1117.700640307038</v>
       </c>
       <c r="V35" t="n">
-        <v>917.5019861938964</v>
+        <v>919.1472249482599</v>
       </c>
       <c r="W35" t="n">
-        <v>825.9717972000376</v>
+        <v>698.8880416629387</v>
       </c>
       <c r="X35" t="n">
-        <v>585.0155109237506</v>
+        <v>457.9317553866517</v>
       </c>
       <c r="Y35" t="n">
-        <v>585.0155109237506</v>
+        <v>457.9317553866517</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>592.5803335673231</v>
+        <v>129.3833568374957</v>
       </c>
       <c r="C36" t="n">
-        <v>550.636776270989</v>
+        <v>87.43979954116162</v>
       </c>
       <c r="D36" t="n">
-        <v>401.7023666097377</v>
+        <v>71.01486186470328</v>
       </c>
       <c r="E36" t="n">
-        <v>242.4649116042822</v>
+        <v>44.28687884404071</v>
       </c>
       <c r="F36" t="n">
-        <v>228.4398256159601</v>
+        <v>30.2617928557186</v>
       </c>
       <c r="G36" t="n">
-        <v>222.3430132588068</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="H36" t="n">
-        <v>110.1766822633817</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="I36" t="n">
         <v>24.16498049856529</v>
@@ -7025,43 +7025,43 @@
         <v>425.6992301228721</v>
       </c>
       <c r="M36" t="n">
-        <v>724.7408637926176</v>
+        <v>724.5016862774437</v>
       </c>
       <c r="N36" t="n">
-        <v>917.3211675856852</v>
+        <v>724.5016862774437</v>
       </c>
       <c r="O36" t="n">
-        <v>917.3211675856852</v>
+        <v>1002.296923707389</v>
       </c>
       <c r="P36" t="n">
-        <v>1123.273268806561</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="Q36" t="n">
         <v>1208.249024928265</v>
       </c>
       <c r="R36" t="n">
-        <v>1208.249024928265</v>
+        <v>1114.811966814061</v>
       </c>
       <c r="S36" t="n">
-        <v>1169.654448216713</v>
+        <v>943.7079181177169</v>
       </c>
       <c r="T36" t="n">
-        <v>1100.479313491534</v>
+        <v>768.2680226358359</v>
       </c>
       <c r="U36" t="n">
-        <v>1004.773360704521</v>
+        <v>672.5620698488231</v>
       </c>
       <c r="V36" t="n">
-        <v>900.6069383469078</v>
+        <v>437.4099616170804</v>
       </c>
       <c r="W36" t="n">
-        <v>778.8790536034991</v>
+        <v>315.6820768736717</v>
       </c>
       <c r="X36" t="n">
-        <v>703.5370253827592</v>
+        <v>240.3400486529318</v>
       </c>
       <c r="Y36" t="n">
-        <v>628.2861986025982</v>
+        <v>165.0892218727708</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>308.4452987995787</v>
+        <v>196.8562651276384</v>
       </c>
       <c r="C37" t="n">
-        <v>272.0185878564647</v>
+        <v>160.4295541845244</v>
       </c>
       <c r="D37" t="n">
-        <v>254.4114204289219</v>
+        <v>142.8223867569816</v>
       </c>
       <c r="E37" t="n">
-        <v>239.0077988313218</v>
+        <v>127.4187651593815</v>
       </c>
       <c r="F37" t="n">
-        <v>224.6273233182043</v>
+        <v>113.0382896462641</v>
       </c>
       <c r="G37" t="n">
-        <v>187.5533484192017</v>
+        <v>75.96431474726141</v>
       </c>
       <c r="H37" t="n">
-        <v>157.1252987779685</v>
+        <v>45.53626510602822</v>
       </c>
       <c r="I37" t="n">
-        <v>135.7540141705056</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="J37" t="n">
-        <v>180.4359218237699</v>
+        <v>68.84688815182963</v>
       </c>
       <c r="K37" t="n">
-        <v>300.1509242499418</v>
+        <v>188.5618905780015</v>
       </c>
       <c r="L37" t="n">
-        <v>472.5517496961078</v>
+        <v>360.9627160241679</v>
       </c>
       <c r="M37" t="n">
-        <v>657.6535272417359</v>
+        <v>546.064493569796</v>
       </c>
       <c r="N37" t="n">
-        <v>846.8766932290589</v>
+        <v>735.287659557119</v>
       </c>
       <c r="O37" t="n">
-        <v>1015.552846494254</v>
+        <v>903.9638128223141</v>
       </c>
       <c r="P37" t="n">
-        <v>1155.107898005846</v>
+        <v>1043.518864333906</v>
       </c>
       <c r="Q37" t="n">
-        <v>1208.249024928265</v>
+        <v>1096.659991256324</v>
       </c>
       <c r="R37" t="n">
-        <v>1166.368963865013</v>
+        <v>1054.779930193073</v>
       </c>
       <c r="S37" t="n">
-        <v>1074.418643807792</v>
+        <v>962.8296101358522</v>
       </c>
       <c r="T37" t="n">
-        <v>977.1261656211857</v>
+        <v>865.5371319492455</v>
       </c>
       <c r="U37" t="n">
-        <v>820.4301919902487</v>
+        <v>708.8411583183084</v>
       </c>
       <c r="V37" t="n">
-        <v>698.2551757691547</v>
+        <v>586.6661420972144</v>
       </c>
       <c r="W37" t="n">
-        <v>541.347477716987</v>
+        <v>429.7584440450468</v>
       </c>
       <c r="X37" t="n">
-        <v>445.8673988037626</v>
+        <v>334.2783651318223</v>
       </c>
       <c r="Y37" t="n">
-        <v>357.5842916450254</v>
+        <v>245.9952579730852</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>497.6026936286495</v>
+        <v>302.6414133033799</v>
       </c>
       <c r="C38" t="n">
-        <v>261.1496486730307</v>
+        <v>302.6414133033799</v>
       </c>
       <c r="D38" t="n">
-        <v>261.1496486730307</v>
+        <v>302.6414133033799</v>
       </c>
       <c r="E38" t="n">
-        <v>261.1496486730307</v>
+        <v>302.6414133033799</v>
       </c>
       <c r="F38" t="n">
-        <v>261.1496486730307</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1496486730307</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="H38" t="n">
-        <v>53.13910040690183</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="I38" t="n">
         <v>24.16498049856529</v>
@@ -7180,19 +7180,19 @@
         <v>163.7323802006364</v>
       </c>
       <c r="L38" t="n">
-        <v>379.8095637899937</v>
+        <v>379.8095637899935</v>
       </c>
       <c r="M38" t="n">
-        <v>636.8436096221674</v>
+        <v>636.8436096221672</v>
       </c>
       <c r="N38" t="n">
-        <v>883.4047374909144</v>
+        <v>883.4047374909142</v>
       </c>
       <c r="O38" t="n">
         <v>1071.037781056287</v>
       </c>
       <c r="P38" t="n">
-        <v>1193.503859787913</v>
+        <v>1193.503859787912</v>
       </c>
       <c r="Q38" t="n">
         <v>1208.249024928265</v>
@@ -7201,25 +7201,25 @@
         <v>1203.997070311996</v>
       </c>
       <c r="S38" t="n">
-        <v>1130.679326278159</v>
+        <v>1203.997070311996</v>
       </c>
       <c r="T38" t="n">
-        <v>1130.679326278159</v>
+        <v>1203.997070311996</v>
       </c>
       <c r="U38" t="n">
-        <v>1009.322921698997</v>
+        <v>1082.640665732835</v>
       </c>
       <c r="V38" t="n">
-        <v>1009.322921698997</v>
+        <v>884.0872503740571</v>
       </c>
       <c r="W38" t="n">
-        <v>1009.322921698997</v>
+        <v>814.3616413737275</v>
       </c>
       <c r="X38" t="n">
-        <v>1009.322921698997</v>
+        <v>814.3616413737275</v>
       </c>
       <c r="Y38" t="n">
-        <v>751.6930617079784</v>
+        <v>556.7317813827087</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>594.1041196779867</v>
+        <v>215.3950586023122</v>
       </c>
       <c r="C39" t="n">
-        <v>419.6510903968597</v>
+        <v>173.4515013059781</v>
       </c>
       <c r="D39" t="n">
-        <v>403.2261527204013</v>
+        <v>157.0265636295197</v>
       </c>
       <c r="E39" t="n">
-        <v>376.4981696997388</v>
+        <v>130.2985806088572</v>
       </c>
       <c r="F39" t="n">
-        <v>229.9636117266237</v>
+        <v>116.273494620535</v>
       </c>
       <c r="G39" t="n">
-        <v>222.3430132588068</v>
+        <v>110.1766822633817</v>
       </c>
       <c r="H39" t="n">
         <v>110.1766822633817</v>
@@ -7253,19 +7253,19 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J39" t="n">
-        <v>34.95810418129544</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="K39" t="n">
-        <v>180.0261147733385</v>
+        <v>169.2329910906083</v>
       </c>
       <c r="L39" t="n">
-        <v>436.4923538056023</v>
+        <v>425.6992301228721</v>
       </c>
       <c r="M39" t="n">
-        <v>735.5339874753478</v>
+        <v>639.5259301557401</v>
       </c>
       <c r="N39" t="n">
-        <v>735.5339874753478</v>
+        <v>639.5259301557401</v>
       </c>
       <c r="O39" t="n">
         <v>917.3211675856852</v>
@@ -7277,28 +7277,28 @@
         <v>1208.249024928265</v>
       </c>
       <c r="R39" t="n">
-        <v>1208.249024928265</v>
+        <v>1114.811966814061</v>
       </c>
       <c r="S39" t="n">
-        <v>1169.654448216713</v>
+        <v>1076.21739010251</v>
       </c>
       <c r="T39" t="n">
-        <v>1100.479313491534</v>
+        <v>1007.042255377331</v>
       </c>
       <c r="U39" t="n">
-        <v>1004.773360704521</v>
+        <v>778.8268306055251</v>
       </c>
       <c r="V39" t="n">
-        <v>902.1307244575713</v>
+        <v>676.1841943585753</v>
       </c>
       <c r="W39" t="n">
-        <v>780.4028397141626</v>
+        <v>554.4563096151666</v>
       </c>
       <c r="X39" t="n">
-        <v>705.0608114934228</v>
+        <v>479.1142813944267</v>
       </c>
       <c r="Y39" t="n">
-        <v>629.8099847132618</v>
+        <v>271.3539826294728</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>308.4452987995784</v>
+        <v>196.8562651276384</v>
       </c>
       <c r="C40" t="n">
-        <v>272.0185878564644</v>
+        <v>160.4295541845244</v>
       </c>
       <c r="D40" t="n">
-        <v>254.4114204289216</v>
+        <v>142.8223867569817</v>
       </c>
       <c r="E40" t="n">
-        <v>239.0077988313215</v>
+        <v>127.4187651593815</v>
       </c>
       <c r="F40" t="n">
-        <v>224.627323318204</v>
+        <v>113.0382896462641</v>
       </c>
       <c r="G40" t="n">
-        <v>187.5533484192014</v>
+        <v>75.96431474726141</v>
       </c>
       <c r="H40" t="n">
-        <v>157.1252987779682</v>
+        <v>45.53626510602821</v>
       </c>
       <c r="I40" t="n">
-        <v>135.7540141705052</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="J40" t="n">
-        <v>180.4359218237696</v>
+        <v>68.84688815182962</v>
       </c>
       <c r="K40" t="n">
-        <v>300.1509242499415</v>
+        <v>188.5618905780015</v>
       </c>
       <c r="L40" t="n">
-        <v>472.5517496961078</v>
+        <v>360.9627160241679</v>
       </c>
       <c r="M40" t="n">
-        <v>657.6535272417359</v>
+        <v>546.064493569796</v>
       </c>
       <c r="N40" t="n">
-        <v>846.8766932290589</v>
+        <v>735.2876595571192</v>
       </c>
       <c r="O40" t="n">
-        <v>1015.552846494254</v>
+        <v>903.9638128223146</v>
       </c>
       <c r="P40" t="n">
-        <v>1155.107898005846</v>
+        <v>1043.518864333906</v>
       </c>
       <c r="Q40" t="n">
-        <v>1208.249024928265</v>
+        <v>1096.659991256325</v>
       </c>
       <c r="R40" t="n">
-        <v>1166.368963865013</v>
+        <v>1054.779930193073</v>
       </c>
       <c r="S40" t="n">
-        <v>1074.418643807792</v>
+        <v>962.8296101358526</v>
       </c>
       <c r="T40" t="n">
-        <v>977.1261656211854</v>
+        <v>865.5371319492458</v>
       </c>
       <c r="U40" t="n">
-        <v>820.4301919902483</v>
+        <v>708.8411583183087</v>
       </c>
       <c r="V40" t="n">
-        <v>698.2551757691543</v>
+        <v>586.6661420972147</v>
       </c>
       <c r="W40" t="n">
-        <v>541.3474777169866</v>
+        <v>429.758444045047</v>
       </c>
       <c r="X40" t="n">
-        <v>445.8673988037623</v>
+        <v>334.2783651318226</v>
       </c>
       <c r="Y40" t="n">
-        <v>357.5842916450251</v>
+        <v>245.9952579730852</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>483.0359074176117</v>
+        <v>659.2168020127461</v>
       </c>
       <c r="C41" t="n">
-        <v>201.3108191116093</v>
+        <v>411.5839986774052</v>
       </c>
       <c r="D41" t="n">
-        <v>24.16498049856529</v>
+        <v>140.5557287050641</v>
       </c>
       <c r="E41" t="n">
-        <v>24.16498049856529</v>
+        <v>140.5557287050641</v>
       </c>
       <c r="F41" t="n">
-        <v>24.16498049856529</v>
+        <v>140.5557287050641</v>
       </c>
       <c r="G41" t="n">
-        <v>24.16498049856529</v>
+        <v>140.5557287050641</v>
       </c>
       <c r="H41" t="n">
-        <v>24.16498049856529</v>
+        <v>140.5557287050641</v>
       </c>
       <c r="I41" t="n">
         <v>24.16498049856529</v>
@@ -7420,43 +7420,43 @@
         <v>379.8095637899935</v>
       </c>
       <c r="M41" t="n">
-        <v>636.8436096221674</v>
+        <v>636.8436096221672</v>
       </c>
       <c r="N41" t="n">
-        <v>883.4047374909144</v>
+        <v>883.4047374909142</v>
       </c>
       <c r="O41" t="n">
         <v>1071.037781056287</v>
       </c>
       <c r="P41" t="n">
-        <v>1193.503859787913</v>
+        <v>1193.503859787912</v>
       </c>
       <c r="Q41" t="n">
         <v>1208.249024928265</v>
       </c>
       <c r="R41" t="n">
-        <v>1208.249024928265</v>
+        <v>1158.725026961613</v>
       </c>
       <c r="S41" t="n">
-        <v>1089.659237544043</v>
+        <v>1040.135239577392</v>
       </c>
       <c r="T41" t="n">
-        <v>952.5662586885591</v>
+        <v>903.0422607219074</v>
       </c>
       <c r="U41" t="n">
-        <v>785.937810759014</v>
+        <v>903.0422607219074</v>
       </c>
       <c r="V41" t="n">
-        <v>785.937810759014</v>
+        <v>659.2168020127461</v>
       </c>
       <c r="W41" t="n">
-        <v>785.937810759014</v>
+        <v>659.2168020127461</v>
       </c>
       <c r="X41" t="n">
-        <v>785.937810759014</v>
+        <v>659.2168020127461</v>
       </c>
       <c r="Y41" t="n">
-        <v>483.0359074176117</v>
+        <v>659.2168020127461</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>380.6724759504291</v>
+        <v>304.3747178818764</v>
       </c>
       <c r="C42" t="n">
-        <v>293.4568753037115</v>
+        <v>217.1591172351589</v>
       </c>
       <c r="D42" t="n">
-        <v>231.7598942768696</v>
+        <v>155.462136208317</v>
       </c>
       <c r="E42" t="n">
-        <v>159.7598679058235</v>
+        <v>83.46210983727092</v>
       </c>
       <c r="F42" t="n">
-        <v>100.4627385671178</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="G42" t="n">
-        <v>49.09388285958096</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="H42" t="n">
         <v>24.16498049856529</v>
@@ -7502,7 +7502,7 @@
         <v>724.7408637926176</v>
       </c>
       <c r="N42" t="n">
-        <v>1002.296923707389</v>
+        <v>724.7408637926176</v>
       </c>
       <c r="O42" t="n">
         <v>1002.296923707389</v>
@@ -7514,28 +7514,28 @@
         <v>1208.249024928265</v>
       </c>
       <c r="R42" t="n">
-        <v>1202.049395448471</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="S42" t="n">
-        <v>1118.182775386535</v>
+        <v>1196.829349873287</v>
       </c>
       <c r="T42" t="n">
-        <v>1003.735597310973</v>
+        <v>1082.382171797725</v>
       </c>
       <c r="U42" t="n">
-        <v>862.7576011735765</v>
+        <v>941.4041756603285</v>
       </c>
       <c r="V42" t="n">
-        <v>714.8429215762432</v>
+        <v>793.4894960629952</v>
       </c>
       <c r="W42" t="n">
-        <v>582.2644559072112</v>
+        <v>626.489567969203</v>
       </c>
       <c r="X42" t="n">
-        <v>461.6503843360878</v>
+        <v>505.8754963980796</v>
       </c>
       <c r="Y42" t="n">
-        <v>461.6503843360878</v>
+        <v>385.3526262675351</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>242.2394927316633</v>
+        <v>168.7429455699891</v>
       </c>
       <c r="C43" t="n">
-        <v>160.5407384381658</v>
+        <v>87.0441912764916</v>
       </c>
       <c r="D43" t="n">
-        <v>160.5407384381658</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="E43" t="n">
-        <v>99.86507349018206</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="F43" t="n">
-        <v>99.86507349018206</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="G43" t="n">
-        <v>99.86507349018206</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="H43" t="n">
         <v>24.16498049856529</v>
@@ -7569,52 +7569,52 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J43" t="n">
-        <v>24.47575846411871</v>
+        <v>24.47575846411873</v>
       </c>
       <c r="K43" t="n">
-        <v>99.81963120257967</v>
+        <v>99.81963120257973</v>
       </c>
       <c r="L43" t="n">
-        <v>227.8493269610351</v>
+        <v>227.8493269610352</v>
       </c>
       <c r="M43" t="n">
-        <v>368.5799748189523</v>
+        <v>368.5799748189524</v>
       </c>
       <c r="N43" t="n">
-        <v>513.4320111185644</v>
+        <v>513.4320111185646</v>
       </c>
       <c r="O43" t="n">
-        <v>637.7370346960489</v>
+        <v>637.7370346960491</v>
       </c>
       <c r="P43" t="n">
-        <v>732.9209565199297</v>
+        <v>732.9209565199301</v>
       </c>
       <c r="Q43" t="n">
-        <v>741.6909537546373</v>
+        <v>741.6909537546378</v>
       </c>
       <c r="R43" t="n">
-        <v>741.6909537546373</v>
+        <v>654.5388493410028</v>
       </c>
       <c r="S43" t="n">
-        <v>646.3872511155352</v>
+        <v>517.3164859333987</v>
       </c>
       <c r="T43" t="n">
-        <v>646.3872511155352</v>
+        <v>517.3164859333987</v>
       </c>
       <c r="U43" t="n">
-        <v>444.4192341342145</v>
+        <v>517.3164859333987</v>
       </c>
       <c r="V43" t="n">
-        <v>444.4192341342145</v>
+        <v>349.8694263619212</v>
       </c>
       <c r="W43" t="n">
-        <v>242.2394927316633</v>
+        <v>349.8694263619212</v>
       </c>
       <c r="X43" t="n">
-        <v>242.2394927316633</v>
+        <v>263.1539817658194</v>
       </c>
       <c r="Y43" t="n">
-        <v>242.2394927316633</v>
+        <v>263.1539817658194</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.8316409749013</v>
+        <v>492.5883540832015</v>
       </c>
       <c r="C44" t="n">
-        <v>439.106552668899</v>
+        <v>492.5883540832015</v>
       </c>
       <c r="D44" t="n">
-        <v>439.106552668899</v>
+        <v>492.5883540832015</v>
       </c>
       <c r="E44" t="n">
-        <v>140.5557287050642</v>
+        <v>492.5883540832015</v>
       </c>
       <c r="F44" t="n">
-        <v>140.5557287050642</v>
+        <v>187.4749639498013</v>
       </c>
       <c r="G44" t="n">
-        <v>140.5557287050642</v>
+        <v>140.555728705064</v>
       </c>
       <c r="H44" t="n">
-        <v>140.5557287050642</v>
+        <v>140.555728705064</v>
       </c>
       <c r="I44" t="n">
         <v>24.16498049856529</v>
       </c>
       <c r="J44" t="n">
-        <v>31.69781288741925</v>
+        <v>31.69781288741905</v>
       </c>
       <c r="K44" t="n">
-        <v>163.7323802006366</v>
+        <v>163.7323802006364</v>
       </c>
       <c r="L44" t="n">
-        <v>379.8095637899937</v>
+        <v>379.8095637899935</v>
       </c>
       <c r="M44" t="n">
-        <v>636.8436096221674</v>
+        <v>636.8436096221673</v>
       </c>
       <c r="N44" t="n">
-        <v>883.4047374909144</v>
+        <v>883.4047374909142</v>
       </c>
       <c r="O44" t="n">
         <v>1071.037781056287</v>
@@ -7678,22 +7678,22 @@
         <v>1040.135239577392</v>
       </c>
       <c r="T44" t="n">
-        <v>1020.194052404614</v>
+        <v>903.0422607219075</v>
       </c>
       <c r="U44" t="n">
-        <v>1020.194052404614</v>
+        <v>736.4138127923626</v>
       </c>
       <c r="V44" t="n">
-        <v>1020.194052404614</v>
+        <v>492.5883540832015</v>
       </c>
       <c r="W44" t="n">
-        <v>1020.194052404614</v>
+        <v>492.5883540832015</v>
       </c>
       <c r="X44" t="n">
-        <v>1020.194052404614</v>
+        <v>492.5883540832015</v>
       </c>
       <c r="Y44" t="n">
-        <v>1020.194052404614</v>
+        <v>492.5883540832015</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>225.7281433951242</v>
+        <v>380.6724759504283</v>
       </c>
       <c r="C45" t="n">
-        <v>138.5125427484066</v>
+        <v>293.4568753037108</v>
       </c>
       <c r="D45" t="n">
-        <v>138.5125427484066</v>
+        <v>231.759894276869</v>
       </c>
       <c r="E45" t="n">
-        <v>138.5125427484066</v>
+        <v>159.759867905823</v>
       </c>
       <c r="F45" t="n">
-        <v>79.21541340970097</v>
+        <v>100.4627385671175</v>
       </c>
       <c r="G45" t="n">
-        <v>49.09388285958096</v>
+        <v>49.09388285958082</v>
       </c>
       <c r="H45" t="n">
         <v>24.16498049856529</v>
@@ -7727,52 +7727,52 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J45" t="n">
-        <v>34.95810418129544</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="K45" t="n">
-        <v>34.95810418129544</v>
+        <v>24.16498049856529</v>
       </c>
       <c r="L45" t="n">
-        <v>291.4243432135593</v>
+        <v>280.6312195308291</v>
       </c>
       <c r="M45" t="n">
-        <v>590.4659768833047</v>
+        <v>579.6728532005745</v>
       </c>
       <c r="N45" t="n">
-        <v>889.5076105530502</v>
+        <v>878.71448687032</v>
       </c>
       <c r="O45" t="n">
-        <v>917.3211675856852</v>
+        <v>1156.509724300265</v>
       </c>
       <c r="P45" t="n">
-        <v>1123.273268806561</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="Q45" t="n">
         <v>1208.249024928265</v>
       </c>
       <c r="R45" t="n">
-        <v>1202.049395448471</v>
+        <v>1208.249024928265</v>
       </c>
       <c r="S45" t="n">
-        <v>1118.182775386535</v>
+        <v>1124.38240486633</v>
       </c>
       <c r="T45" t="n">
-        <v>1003.735597310973</v>
+        <v>1009.935226790767</v>
       </c>
       <c r="U45" t="n">
-        <v>862.7576011735765</v>
+        <v>869.7872541315467</v>
       </c>
       <c r="V45" t="n">
-        <v>714.8429215762432</v>
+        <v>869.7872541315467</v>
       </c>
       <c r="W45" t="n">
-        <v>547.8429934824509</v>
+        <v>702.7873260377545</v>
       </c>
       <c r="X45" t="n">
-        <v>427.2289219113275</v>
+        <v>582.1732544666312</v>
       </c>
       <c r="Y45" t="n">
-        <v>306.7060517807829</v>
+        <v>461.6503843360868</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>165.5250156328918</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="C46" t="n">
-        <v>106.5109987479515</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="D46" t="n">
-        <v>106.5109987479515</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="E46" t="n">
-        <v>106.5109987479515</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="F46" t="n">
-        <v>106.5109987479515</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="G46" t="n">
         <v>24.16498049856529</v>
@@ -7806,52 +7806,52 @@
         <v>24.16498049856529</v>
       </c>
       <c r="J46" t="n">
-        <v>24.47575846411871</v>
+        <v>24.47575846411884</v>
       </c>
       <c r="K46" t="n">
-        <v>99.81963120257967</v>
+        <v>99.81963120257994</v>
       </c>
       <c r="L46" t="n">
-        <v>227.8493269610351</v>
+        <v>227.8493269610355</v>
       </c>
       <c r="M46" t="n">
-        <v>368.5799748189523</v>
+        <v>368.5799748189528</v>
       </c>
       <c r="N46" t="n">
-        <v>513.4320111185644</v>
+        <v>513.432011118565</v>
       </c>
       <c r="O46" t="n">
-        <v>637.7370346960489</v>
+        <v>637.7370346960497</v>
       </c>
       <c r="P46" t="n">
-        <v>732.9209565199297</v>
+        <v>732.9209565199308</v>
       </c>
       <c r="Q46" t="n">
-        <v>741.6909537546373</v>
+        <v>741.6909537546386</v>
       </c>
       <c r="R46" t="n">
-        <v>741.6909537546373</v>
+        <v>654.5388493410037</v>
       </c>
       <c r="S46" t="n">
-        <v>604.4685903470331</v>
+        <v>618.4905968377393</v>
       </c>
       <c r="T46" t="n">
-        <v>461.9040688100428</v>
+        <v>475.9260753007491</v>
       </c>
       <c r="U46" t="n">
-        <v>259.9360518287222</v>
+        <v>273.9580583194287</v>
       </c>
       <c r="V46" t="n">
-        <v>259.9360518287222</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="W46" t="n">
-        <v>259.9360518287222</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="X46" t="n">
-        <v>259.9360518287222</v>
+        <v>106.5109987479514</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.9360518287222</v>
+        <v>106.5109987479514</v>
       </c>
     </row>
   </sheetData>
@@ -8458,19 +8458,19 @@
         <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.3646406817305</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M8" t="n">
         <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>237.8312214670128</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8540,19 +8540,19 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
-        <v>140.5726331260735</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8622,10 +8622,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>117.9318929802119</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>118.3335974273883</v>
       </c>
       <c r="M12" t="n">
         <v>412.9559807295828</v>
@@ -8783,10 +8783,10 @@
         <v>401.3368208588732</v>
       </c>
       <c r="O12" t="n">
-        <v>202.8546528439241</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>110.4303431643051</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>115.188890206338</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.223643562908</v>
+        <v>117.9318929802119</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>110.8937244975167</v>
+        <v>412.9559807295828</v>
       </c>
       <c r="N15" t="n">
         <v>401.3368208588732</v>
@@ -9023,7 +9023,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>151.7901178564962</v>
       </c>
       <c r="Q15" t="n">
         <v>124.2431906432191</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720739</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>115.188890206338</v>
       </c>
       <c r="K18" t="n">
-        <v>117.9318929802119</v>
+        <v>264.223643562908</v>
       </c>
       <c r="L18" t="n">
-        <v>118.3335974273883</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>412.9559807295828</v>
       </c>
       <c r="N18" t="n">
-        <v>401.3368208588732</v>
+        <v>99.27456462680705</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>124.2431906432191</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9412,7 +9412,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119844</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>117.9318929802119</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>412.9559807295828</v>
       </c>
       <c r="N21" t="n">
-        <v>148.8300729828023</v>
+        <v>401.3368208588732</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>288.688749936554</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>110.4303431643051</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>124.2431906432191</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>115.188890206338</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.5987518537886</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>110.8937244975167</v>
+        <v>315.9781450532114</v>
       </c>
       <c r="N24" t="n">
-        <v>401.3368208588732</v>
+        <v>99.27456462680705</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.2431906432191</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9968,10 +9968,10 @@
         <v>470.4199899905061</v>
       </c>
       <c r="O27" t="n">
-        <v>354.563838061572</v>
+        <v>146.5314125859401</v>
       </c>
       <c r="P27" t="n">
-        <v>110.4303431643051</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>115.188890206338</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>319.8253255264177</v>
+        <v>308.9231803923465</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>199.8953636442046</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>463.5439442487947</v>
+        <v>292.5989625895396</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>412.9559807295828</v>
+        <v>412.7143872799123</v>
       </c>
       <c r="N36" t="n">
-        <v>293.800124013744</v>
+        <v>99.27456462680705</v>
       </c>
       <c r="O36" t="n">
-        <v>113.2610693474921</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>124.2431906432191</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504506</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>115.188890206338</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>412.9559807295828</v>
+        <v>326.8802901872823</v>
       </c>
       <c r="N39" t="n">
         <v>99.27456462680705</v>
       </c>
       <c r="O39" t="n">
-        <v>296.8844836003582</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11150,10 +11150,10 @@
         <v>412.9559807295828</v>
       </c>
       <c r="N42" t="n">
-        <v>379.634221106374</v>
+        <v>99.27456462680705</v>
       </c>
       <c r="O42" t="n">
-        <v>113.2610693474921</v>
+        <v>393.620725827059</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>115.188890206338</v>
       </c>
       <c r="K45" t="n">
         <v>117.9318929802119</v>
@@ -11390,13 +11390,13 @@
         <v>401.3368208588732</v>
       </c>
       <c r="O45" t="n">
-        <v>141.3555714006587</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>162.6922629905672</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>124.2431906432191</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>285.850411883647</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>268.389461991174</v>
       </c>
       <c r="D11" t="n">
-        <v>226.9054782547627</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>285.0469402924282</v>
       </c>
       <c r="F11" t="n">
-        <v>309.9926159618779</v>
+        <v>187.9470322444636</v>
       </c>
       <c r="G11" t="n">
         <v>16.12661263421501</v>
       </c>
       <c r="H11" t="n">
-        <v>240.231390268579</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>104.7084652926656</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>38.51038255521701</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>106.8855140786107</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>125.2036736351613</v>
@@ -23427,13 +23427,13 @@
         <v>49.55053286673562</v>
       </c>
       <c r="F13" t="n">
-        <v>48.5376182430977</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>71.00418263512408</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.42471662993232</v>
       </c>
       <c r="I13" t="n">
         <v>55.45851924649974</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.76220793773044</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>130.6205008898522</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>189.4299613797391</v>
+        <v>121.7526432840112</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>63.35870328011301</v>
+        <v>128.8262256092036</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>121.7012235722612</v>
       </c>
     </row>
     <row r="14">
@@ -23551,10 +23551,10 @@
         <v>125.2036736351613</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>154.4437880184813</v>
       </c>
       <c r="V14" t="n">
-        <v>62.63541699845948</v>
+        <v>197.5461378561981</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>289.3545088762201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.94855040210375</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>70.36339131879429</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>49.55053286673562</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>48.5376182430977</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>64.42471662993232</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>75.76220793773044</v>
       </c>
       <c r="S16" t="n">
         <v>125.3317643417599</v>
@@ -23709,19 +23709,19 @@
         <v>130.6205008898522</v>
       </c>
       <c r="U16" t="n">
-        <v>117.1587285015653</v>
+        <v>19.45254996068903</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>155.2542135439945</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>189.6395685567575</v>
       </c>
       <c r="X16" t="n">
-        <v>128.8262256092036</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>121.7012235722612</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>250.7459928073168</v>
       </c>
       <c r="F17" t="n">
-        <v>275.6916684767664</v>
+        <v>162.7570460417528</v>
       </c>
       <c r="G17" t="n">
         <v>283.8879213811697</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>72.58456659349928</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>198.1966675720097</v>
+        <v>238.546723413524</v>
       </c>
       <c r="Y17" t="n">
         <v>255.0535613911086</v>
@@ -23971,16 +23971,16 @@
         <v>251.5494643985356</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>234.0885145060626</v>
       </c>
       <c r="D20" t="n">
-        <v>223.498664355738</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>250.7459928073168</v>
       </c>
       <c r="F20" t="n">
-        <v>275.6916684767664</v>
+        <v>29.41116985178454</v>
       </c>
       <c r="G20" t="n">
         <v>283.8879213811697</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.20943507010556</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.58456659349928</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>90.9027261500498</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>90.21290851632088</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>238.546723413524</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>255.0535613911086</v>
       </c>
     </row>
     <row r="21">
@@ -24208,22 +24208,22 @@
         <v>251.5494643985356</v>
       </c>
       <c r="C23" t="n">
-        <v>101.0421812486826</v>
+        <v>234.0885145060626</v>
       </c>
       <c r="D23" t="n">
         <v>223.498664355738</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>250.7459928073168</v>
       </c>
       <c r="F23" t="n">
         <v>275.6916684767664</v>
       </c>
       <c r="G23" t="n">
-        <v>283.8879213811697</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>205.9304427834676</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>70.40751780755414</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>90.9027261500498</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>120.1428405333699</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>196.5678812051899</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>20.03920118391747</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>238.546723413524</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>255.0535613911086</v>
       </c>
     </row>
     <row r="24">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>303.6135712614894</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>286.1526213690164</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>275.5627712186918</v>
       </c>
       <c r="E26" t="n">
-        <v>215.8377804116001</v>
+        <v>302.8100996702706</v>
       </c>
       <c r="F26" t="n">
-        <v>327.7557753397203</v>
+        <v>294.7924449292194</v>
       </c>
       <c r="G26" t="n">
-        <v>335.9520282441235</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>257.9945496464214</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>122.471624670508</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.27354193305943</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>124.6486734564532</v>
       </c>
       <c r="T26" t="n">
         <v>142.9668330130037</v>
       </c>
       <c r="U26" t="n">
-        <v>172.2069473963237</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>248.6319880681438</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>270.1206983154219</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>290.6108302764779</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>307.1176682540624</v>
       </c>
     </row>
     <row r="27">
@@ -24603,28 +24603,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>88.12655069663667</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>69.49520261622119</v>
+        <v>69.49520261622122</v>
       </c>
       <c r="E28" t="n">
-        <v>67.31369224457801</v>
+        <v>67.31369224457804</v>
       </c>
       <c r="F28" t="n">
-        <v>66.30077762094008</v>
+        <v>66.30077762094011</v>
       </c>
       <c r="G28" t="n">
-        <v>88.76734201296647</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>82.1878760077747</v>
+        <v>82.18787600777473</v>
       </c>
       <c r="I28" t="n">
-        <v>73.22167862434213</v>
+        <v>73.22167862434216</v>
       </c>
       <c r="J28" t="n">
-        <v>6.930866809151483</v>
+        <v>6.930866809151512</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>93.52536731557282</v>
+        <v>93.52536731557285</v>
       </c>
       <c r="S28" t="n">
         <v>143.0949237196023</v>
@@ -24657,19 +24657,19 @@
         <v>148.3836602676946</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>207.1931207575815</v>
       </c>
       <c r="V28" t="n">
-        <v>173.0173729218369</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1.558189340390669</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>146.589384987046</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.4643829501036</v>
+        <v>137.151332177307</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>303.6135712614895</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>286.1526213690165</v>
       </c>
       <c r="D29" t="n">
-        <v>275.5627712186918</v>
+        <v>275.5627712186919</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>302.8100996702707</v>
       </c>
       <c r="F29" t="n">
-        <v>327.7557753397203</v>
+        <v>278.6617232972594</v>
       </c>
       <c r="G29" t="n">
-        <v>335.9520282441235</v>
+        <v>335.9520282441237</v>
       </c>
       <c r="H29" t="n">
-        <v>257.9945496464214</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>122.471624670508</v>
+        <v>122.4716246705081</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>56.27354193305939</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>124.6486734564531</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>142.9668330130037</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>172.2069473963237</v>
+        <v>172.2069473963238</v>
       </c>
       <c r="V29" t="n">
-        <v>248.6319880681438</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>270.1206983154219</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>49.96362407987314</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>307.1176682540626</v>
       </c>
     </row>
     <row r="30">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>100.7117097799463</v>
       </c>
       <c r="C31" t="n">
-        <v>88.12655069663667</v>
+        <v>88.12655069663681</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>69.49520261622133</v>
       </c>
       <c r="E31" t="n">
-        <v>67.31369224457801</v>
+        <v>67.31369224457815</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>66.30077762094022</v>
       </c>
       <c r="G31" t="n">
-        <v>88.76734201296647</v>
+        <v>88.76734201296661</v>
       </c>
       <c r="H31" t="n">
-        <v>82.1878760077747</v>
+        <v>82.18787600777485</v>
       </c>
       <c r="I31" t="n">
-        <v>73.22167862434213</v>
+        <v>73.22167862434227</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.930866809151626</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>93.52536731557296</v>
       </c>
       <c r="S31" t="n">
-        <v>143.0949237196023</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>148.3836602676946</v>
+        <v>148.3836602676947</v>
       </c>
       <c r="U31" t="n">
-        <v>207.1931207575815</v>
+        <v>207.1931207575816</v>
       </c>
       <c r="V31" t="n">
-        <v>57.0452708794857</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>9.765655444303377</v>
       </c>
       <c r="X31" t="n">
-        <v>146.589384987046</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.4643829501036</v>
+        <v>139.4643829501038</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.5494643985356</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>234.0885145060626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>250.7459928073168</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>165.8623580210571</v>
+        <v>110.1131860723715</v>
       </c>
       <c r="H32" t="n">
         <v>205.9304427834676</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.20943507010556</v>
+        <v>4.209435070105561</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>72.58456659349928</v>
       </c>
       <c r="T32" t="n">
         <v>90.9027261500498</v>
@@ -24979,7 +24979,7 @@
         <v>196.5678812051899</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>218.056591452468</v>
       </c>
       <c r="X32" t="n">
         <v>238.546723413524</v>
@@ -25156,13 +25156,13 @@
         <v>251.5494643985356</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>234.0885145060626</v>
       </c>
       <c r="D35" t="n">
-        <v>223.498664355738</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>250.7459928073168</v>
       </c>
       <c r="F35" t="n">
         <v>275.6916684767664</v>
@@ -25171,10 +25171,10 @@
         <v>283.8879213811697</v>
       </c>
       <c r="H35" t="n">
-        <v>205.9304427834676</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>70.40751780755414</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>72.58456659349928</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>90.9027261500498</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>34.7093748284608</v>
       </c>
       <c r="V35" t="n">
-        <v>196.5678812051899</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>127.4417043485478</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>234.0885145060626</v>
       </c>
       <c r="D38" t="n">
         <v>223.498664355738</v>
@@ -25402,16 +25402,16 @@
         <v>250.7459928073168</v>
       </c>
       <c r="F38" t="n">
-        <v>275.6916684767664</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>283.8879213811697</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>205.9304427834676</v>
       </c>
       <c r="I38" t="n">
-        <v>41.72313909830097</v>
+        <v>70.40751780755414</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>72.58456659349928</v>
       </c>
       <c r="T38" t="n">
         <v>90.9027261500498</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>196.5678812051899</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>218.056591452468</v>
+        <v>149.0282385421417</v>
       </c>
       <c r="X38" t="n">
         <v>238.546723413524</v>
@@ -25630,10 +25630,10 @@
         <v>296.3687873154153</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>33.75136212095475</v>
       </c>
       <c r="D41" t="n">
-        <v>92.94360704570408</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>295.5653157241965</v>
@@ -25645,10 +25645,10 @@
         <v>328.7072442980494</v>
       </c>
       <c r="H41" t="n">
-        <v>250.7497657003473</v>
+        <v>250.7497657003472</v>
       </c>
       <c r="I41" t="n">
-        <v>115.2268407244339</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>49.02875798698528</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>164.9621634502496</v>
       </c>
       <c r="V41" t="n">
-        <v>241.3872041220696</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>262.8759143693477</v>
@@ -25696,7 +25696,7 @@
         <v>283.3660463304037</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>299.8728843079883</v>
       </c>
     </row>
     <row r="42">
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>50.85516715046146</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>24.67961333740548</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.13763318499594</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>71.72247555688833</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,13 +25769,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>34.07724780051268</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>119.3176414292391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>93.46692583387201</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>62.25041867014707</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>60.06890829850386</v>
       </c>
       <c r="F43" t="n">
-        <v>59.05599367486596</v>
+        <v>59.05599367486593</v>
       </c>
       <c r="G43" t="n">
-        <v>81.52255806689234</v>
+        <v>81.52255806689232</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>74.94309206170055</v>
       </c>
       <c r="I43" t="n">
-        <v>65.97689467826801</v>
+        <v>65.97689467826798</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>86.2805833694987</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>41.49947416081696</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>141.1388763216204</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>199.9483368115073</v>
       </c>
       <c r="V43" t="n">
-        <v>165.7725889757627</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>200.1579439885257</v>
       </c>
       <c r="X43" t="n">
-        <v>139.3446010409719</v>
+        <v>53.496310890831</v>
       </c>
       <c r="Y43" t="n">
         <v>132.2195990040295</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>296.3687873154151</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>278.9078374229421</v>
       </c>
       <c r="D44" t="n">
-        <v>268.3179872726176</v>
+        <v>268.3179872726175</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>295.5653157241964</v>
       </c>
       <c r="F44" t="n">
-        <v>320.5109913936461</v>
+        <v>18.44873516157986</v>
       </c>
       <c r="G44" t="n">
-        <v>328.7072442980494</v>
+        <v>282.2572014057594</v>
       </c>
       <c r="H44" t="n">
-        <v>250.7497657003473</v>
+        <v>250.7497657003471</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>115.9802737658795</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>164.9621634502496</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.3872041220696</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>262.8759143693477</v>
+        <v>262.8759143693476</v>
       </c>
       <c r="X44" t="n">
-        <v>283.3660463304037</v>
+        <v>283.3660463304036</v>
       </c>
       <c r="Y44" t="n">
-        <v>299.8728843079883</v>
+        <v>299.8728843079882</v>
       </c>
     </row>
     <row r="45">
@@ -25949,16 +25949,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>61.08001121657347</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>71.28002610733566</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>21.03485190584268</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.137633184995826</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,10 +26000,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.8217232433940183</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>146.4355328013598</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>93.46692583387187</v>
       </c>
       <c r="C46" t="n">
-        <v>22.45789003447162</v>
+        <v>80.88176675056241</v>
       </c>
       <c r="D46" t="n">
-        <v>62.25041867014707</v>
+        <v>62.25041867014693</v>
       </c>
       <c r="E46" t="n">
-        <v>60.06890829850389</v>
+        <v>60.06890829850374</v>
       </c>
       <c r="F46" t="n">
-        <v>59.05599367486596</v>
+        <v>59.05599367486582</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>74.94309206170058</v>
+        <v>74.94309206170044</v>
       </c>
       <c r="I46" t="n">
-        <v>65.97689467826801</v>
+        <v>65.97689467826787</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>86.2805833694987</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>100.1623697952962</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.7725889757627</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>200.1579439885257</v>
+        <v>200.1579439885256</v>
       </c>
       <c r="X46" t="n">
-        <v>139.3446010409719</v>
+        <v>139.3446010409717</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.2195990040295</v>
+        <v>132.2195990040294</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637352.0951329113</v>
+        <v>637352.0951329111</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>637352.0951329111</v>
+        <v>637352.0951329113</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>630813.1575710009</v>
+        <v>630813.1575710007</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>614673.3709764574</v>
+        <v>614673.3709764571</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>614673.3709764571</v>
+        <v>614673.3709764574</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>716866.7963774086</v>
+      </c>
+      <c r="C2" t="n">
         <v>716866.7963774088</v>
-      </c>
-      <c r="C2" t="n">
-        <v>716866.7963774087</v>
       </c>
       <c r="D2" t="n">
         <v>717824.6295492287</v>
       </c>
       <c r="E2" t="n">
-        <v>536276.9460230586</v>
+        <v>536276.9460230587</v>
       </c>
       <c r="F2" t="n">
         <v>536276.946023059</v>
@@ -26331,28 +26331,28 @@
         <v>591674.9245053313</v>
       </c>
       <c r="H2" t="n">
-        <v>591674.9245053297</v>
+        <v>591674.92450533</v>
       </c>
       <c r="I2" t="n">
-        <v>591674.9245053311</v>
+        <v>591674.9245053293</v>
       </c>
       <c r="J2" t="n">
         <v>526258.5613778053</v>
       </c>
       <c r="K2" t="n">
-        <v>526258.5613778054</v>
+        <v>526258.5613778053</v>
       </c>
       <c r="L2" t="n">
         <v>608489.368125384</v>
       </c>
       <c r="M2" t="n">
-        <v>591674.9245053296</v>
+        <v>591674.9245053295</v>
       </c>
       <c r="N2" t="n">
-        <v>591674.9245053312</v>
+        <v>591674.9245053293</v>
       </c>
       <c r="O2" t="n">
-        <v>513598.2218666043</v>
+        <v>513598.2218666044</v>
       </c>
       <c r="P2" t="n">
         <v>513598.2218666045</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>69092.04347845222</v>
+        <v>69092.04347845234</v>
       </c>
       <c r="M3" t="n">
-        <v>58059.32042177636</v>
+        <v>58059.32042177639</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,19 +26432,19 @@
         <v>240726.2334708198</v>
       </c>
       <c r="G4" t="n">
-        <v>276947.3062508968</v>
+        <v>276947.3062508969</v>
       </c>
       <c r="H4" t="n">
         <v>276947.3062508969</v>
       </c>
       <c r="I4" t="n">
-        <v>276947.3062508969</v>
+        <v>276947.3062508968</v>
       </c>
       <c r="J4" t="n">
-        <v>231438.1818653423</v>
+        <v>231438.1818653422</v>
       </c>
       <c r="K4" t="n">
-        <v>231438.1818653423</v>
+        <v>231438.181865342</v>
       </c>
       <c r="L4" t="n">
         <v>285474.0261292725</v>
@@ -26459,7 +26459,7 @@
         <v>225906.8154846406</v>
       </c>
       <c r="P4" t="n">
-        <v>225906.8154846406</v>
+        <v>225906.8154846408</v>
       </c>
     </row>
     <row r="5">
@@ -26496,10 +26496,10 @@
         <v>30466.81625151796</v>
       </c>
       <c r="K5" t="n">
-        <v>30466.81625151796</v>
+        <v>30466.81625151795</v>
       </c>
       <c r="L5" t="n">
-        <v>34425.73007028358</v>
+        <v>34425.73007028357</v>
       </c>
       <c r="M5" t="n">
         <v>30643.53696817635</v>
@@ -26511,7 +26511,7 @@
         <v>26875.62130987719</v>
       </c>
       <c r="P5" t="n">
-        <v>26875.62130987719</v>
+        <v>26875.6213098772</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>273842.1680410223</v>
+        <v>273798.0322623409</v>
       </c>
       <c r="C6" t="n">
-        <v>273842.1680410221</v>
+        <v>273798.0322623411</v>
       </c>
       <c r="D6" t="n">
-        <v>272646.4321137261</v>
+        <v>272629.662997097</v>
       </c>
       <c r="E6" t="n">
-        <v>56095.56918500415</v>
+        <v>50891.72339619882</v>
       </c>
       <c r="F6" t="n">
-        <v>267790.8219381887</v>
+        <v>262586.9761493833</v>
       </c>
       <c r="G6" t="n">
-        <v>256643.323298169</v>
+        <v>253022.2768945713</v>
       </c>
       <c r="H6" t="n">
-        <v>284084.0812862564</v>
+        <v>280463.0348826592</v>
       </c>
       <c r="I6" t="n">
-        <v>284084.0812862578</v>
+        <v>280463.0348826585</v>
       </c>
       <c r="J6" t="n">
-        <v>210422.9082231644</v>
+        <v>204932.8228730661</v>
       </c>
       <c r="K6" t="n">
-        <v>264353.5632609452</v>
+        <v>258863.477910847</v>
       </c>
       <c r="L6" t="n">
-        <v>219497.5684473756</v>
+        <v>216356.9347186366</v>
       </c>
       <c r="M6" t="n">
-        <v>226024.76086448</v>
+        <v>222403.7144608823</v>
       </c>
       <c r="N6" t="n">
-        <v>284084.0812862579</v>
+        <v>280463.0348826585</v>
       </c>
       <c r="O6" t="n">
-        <v>260815.7850720865</v>
+        <v>254963.975735954</v>
       </c>
       <c r="P6" t="n">
-        <v>260815.7850720867</v>
+        <v>254963.9757359538</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>131.184377264945</v>
       </c>
       <c r="J2" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="K2" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="L2" t="n">
         <v>131.184377264945</v>
@@ -26724,10 +26724,10 @@
         <v>131.184377264945</v>
       </c>
       <c r="O2" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="P2" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
     </row>
     <row r="3">
@@ -26752,22 +26752,22 @@
         <v>57.32166866881032</v>
       </c>
       <c r="G3" t="n">
-        <v>57.32166866881033</v>
+        <v>57.32166866881032</v>
       </c>
       <c r="H3" t="n">
-        <v>57.32166866881033</v>
+        <v>57.32166866881032</v>
       </c>
       <c r="I3" t="n">
-        <v>57.32166866881033</v>
+        <v>57.32166866881032</v>
       </c>
       <c r="J3" t="n">
-        <v>57.32166866881033</v>
+        <v>57.32166866881032</v>
       </c>
       <c r="K3" t="n">
-        <v>57.32166866881033</v>
+        <v>57.32166866881032</v>
       </c>
       <c r="L3" t="n">
-        <v>57.32166866881033</v>
+        <v>57.32166866881032</v>
       </c>
       <c r="M3" t="n">
         <v>57.32166866881032</v>
@@ -26813,13 +26813,13 @@
         <v>302.0622562320661</v>
       </c>
       <c r="J4" t="n">
+        <v>371.1454253636991</v>
+      </c>
+      <c r="K4" t="n">
         <v>371.145425363699</v>
       </c>
-      <c r="K4" t="n">
-        <v>371.1454253636991</v>
-      </c>
       <c r="L4" t="n">
-        <v>364.2693796219877</v>
+        <v>364.2693796219876</v>
       </c>
       <c r="M4" t="n">
         <v>302.0622562320661</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.81932291687971</v>
+        <v>44.81932291687968</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>69.08316913163287</v>
+        <v>69.08316913163293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>232.9790871004332</v>
+        <v>232.9790871004333</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.81932291687971</v>
+        <v>44.81932291687968</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>347.8069958789715</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.0543243305503</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>363.6746795891696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,10 +27934,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>166.6520778990163</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>82.52058710970364</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27988,13 +27988,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>219.0653363392634</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>227.4907573863837</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>163.9118407444349</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
         <v>15.39344608417142</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.28599750998295</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>173.9584110229765</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28645,7 +28645,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="D18" t="n">
         <v>131.184377264945</v>
@@ -28654,13 +28654,13 @@
         <v>131.184377264945</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="G18" t="n">
         <v>131.184377264945</v>
       </c>
       <c r="H18" t="n">
-        <v>111.0446676854708</v>
+        <v>44.5242442682198</v>
       </c>
       <c r="I18" t="n">
         <v>85.15158474716827</v>
@@ -28690,22 +28690,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.98226411581028</v>
+        <v>92.50268753306125</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="T18" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>131.184377264945</v>
       </c>
       <c r="W18" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>131.184377264945</v>
@@ -28885,7 +28885,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="E21" t="n">
         <v>131.184377264945</v>
@@ -28894,7 +28894,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="H21" t="n">
         <v>111.0446676854708</v>
@@ -28927,7 +28927,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.98226411581005</v>
+        <v>92.50268753306125</v>
       </c>
       <c r="S21" t="n">
         <v>131.184377264945</v>
@@ -28939,16 +28939,16 @@
         <v>131.184377264945</v>
       </c>
       <c r="V21" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>64.66395384769385</v>
       </c>
     </row>
     <row r="22">
@@ -29125,13 +29125,13 @@
         <v>131.184377264945</v>
       </c>
       <c r="E24" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>131.184377264945</v>
+        <v>64.66395384769397</v>
       </c>
       <c r="H24" t="n">
         <v>111.0446676854708</v>
@@ -29164,25 +29164,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>92.50268753306125</v>
       </c>
       <c r="S24" t="n">
         <v>131.184377264945</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="U24" t="n">
-        <v>25.98226411581015</v>
+        <v>131.184377264945</v>
       </c>
       <c r="V24" t="n">
         <v>131.184377264945</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="X24" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>131.184377264945</v>
@@ -29237,7 +29237,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="P25" t="n">
-        <v>131.184377264945</v>
+        <v>131.1843772649447</v>
       </c>
       <c r="Q25" t="n">
         <v>131.184377264945</v>
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="C26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="D26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="E26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="F26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="G26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="H26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="I26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="J26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>36.18062616372462</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>79.12027040199116</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="Q26" t="n">
-        <v>79.12027040199116</v>
+        <v>36.18062616372459</v>
       </c>
       <c r="R26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="S26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="T26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="U26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="V26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="W26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="X26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="C27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="D27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="E27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="F27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="G27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="H27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="I27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="S27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="T27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="U27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="V27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="W27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="X27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="Y27" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="C28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="D28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="E28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="F28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="G28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="H28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="I28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="J28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="K28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="L28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="M28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="N28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="O28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="P28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="R28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="S28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="T28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="U28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="V28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="W28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="X28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199114</v>
       </c>
     </row>
     <row r="29">
@@ -29511,40 +29511,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="C29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="D29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="E29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="F29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="G29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="H29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="I29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="J29" t="n">
-        <v>36.1806261637246</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="L29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="M29" t="n">
-        <v>79.12027040199116</v>
+        <v>36.18062616372479</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29556,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>79.12027040199116</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="S29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="T29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="U29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="V29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="W29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="X29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="C30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="D30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="E30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="F30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="G30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="H30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="I30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="S30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="T30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="U30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="V30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="W30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="X30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="Y30" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="C31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="D31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="E31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="F31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="G31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="H31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="I31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="J31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="K31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="L31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="M31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="N31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="O31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="P31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="R31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="S31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="T31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="U31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="V31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="W31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="X31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.12027040199116</v>
+        <v>79.12027040199102</v>
       </c>
     </row>
     <row r="32">
@@ -29775,22 +29775,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>131.184377264945</v>
       </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>104.6390302965596</v>
-      </c>
-      <c r="N32" t="n">
-        <v>10.49166687131626</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>115.1306971678754</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29848,7 +29848,7 @@
         <v>111.0446676854708</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9048216763157768</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29875,25 +29875,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.9048216763163879</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="U33" t="n">
         <v>131.184377264945</v>
       </c>
       <c r="V33" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29945,7 +29945,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="O34" t="n">
-        <v>131.184377264945</v>
+        <v>131.1843772649447</v>
       </c>
       <c r="P34" t="n">
         <v>131.184377264945</v>
@@ -30070,10 +30070,10 @@
         <v>131.184377264945</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="F36" t="n">
         <v>131.184377264945</v>
@@ -30082,10 +30082,10 @@
         <v>131.184377264945</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>111.0446676854708</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>85.15158474716827</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30112,19 +30112,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>92.50268753306125</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>131.184377264945</v>
+        <v>25.98226411581004</v>
       </c>
       <c r="U36" t="n">
         <v>131.184377264945</v>
       </c>
       <c r="V36" t="n">
-        <v>129.6758290153881</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>131.184377264945</v>
@@ -30173,7 +30173,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="L37" t="n">
-        <v>131.1843772649446</v>
+        <v>131.184377264945</v>
       </c>
       <c r="M37" t="n">
         <v>131.184377264945</v>
@@ -30182,7 +30182,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="O37" t="n">
-        <v>131.184377264945</v>
+        <v>131.1843772649447</v>
       </c>
       <c r="P37" t="n">
         <v>131.184377264945</v>
@@ -30301,10 +30301,10 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>111.1338488629783</v>
+      </c>
+      <c r="C39" t="n">
         <v>131.184377264945</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>131.184377264945</v>
@@ -30313,13 +30313,13 @@
         <v>131.184377264945</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>131.184377264945</v>
       </c>
       <c r="G39" t="n">
-        <v>129.675829015388</v>
+        <v>131.184377264945</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>111.0446676854708</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>92.50268753306125</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>131.184377264945</v>
@@ -30358,7 +30358,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="U39" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>131.184377264945</v>
@@ -30370,7 +30370,7 @@
         <v>131.184377264945</v>
       </c>
       <c r="Y39" t="n">
-        <v>131.184377264945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="C41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="D41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="E41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="F41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="G41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="H41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="I41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="S41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="T41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="U41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="V41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="W41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="X41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="Y41" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="C42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="D42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="E42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="F42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="G42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="H42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="I42" t="n">
         <v>85.15158474716827</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="S42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="T42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="U42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="V42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="W42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="X42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="Y42" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="C43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="D43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="E43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="F43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="G43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="H43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="I43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="J43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="K43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="L43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="M43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="N43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="O43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="P43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="R43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="S43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="T43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="U43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="V43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="W43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="X43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806531</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="C44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="D44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="E44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="F44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="G44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="H44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="I44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="S44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="T44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="U44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="V44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="W44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="X44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="Y44" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="C45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="D45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="E45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="F45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="G45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="H45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="I45" t="n">
         <v>85.15158474716827</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="S45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="T45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="U45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="V45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="W45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="X45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="Y45" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="C46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="D46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="E46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="F46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="G46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="H46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="I46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="J46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="K46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="L46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="M46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="N46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="O46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="P46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="R46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="S46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="T46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="U46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="V46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="W46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="X46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.36505434806529</v>
+        <v>86.36505434806543</v>
       </c>
     </row>
   </sheetData>
@@ -32229,10 +32229,10 @@
         <v>0.2304388690203428</v>
       </c>
       <c r="H17" t="n">
-        <v>2.359982067354587</v>
+        <v>2.359982067354586</v>
       </c>
       <c r="I17" t="n">
-        <v>8.883994497906777</v>
+        <v>8.883994497906775</v>
       </c>
       <c r="J17" t="n">
         <v>19.55821095951534</v>
@@ -32247,10 +32247,10 @@
         <v>40.4630490598683</v>
       </c>
       <c r="N17" t="n">
-        <v>41.11778349647236</v>
+        <v>41.11778349647235</v>
       </c>
       <c r="O17" t="n">
-        <v>38.82635699265132</v>
+        <v>38.82635699265131</v>
       </c>
       <c r="P17" t="n">
         <v>33.1373974137116</v>
@@ -32320,7 +32320,7 @@
         <v>19.90954599414707</v>
       </c>
       <c r="L18" t="n">
-        <v>26.77084157971185</v>
+        <v>26.77084157971184</v>
       </c>
       <c r="M18" t="n">
         <v>31.24030942450162</v>
@@ -32338,13 +32338,13 @@
         <v>15.73858344280241</v>
       </c>
       <c r="R18" t="n">
-        <v>7.65514661958188</v>
+        <v>7.655146619581879</v>
       </c>
       <c r="S18" t="n">
         <v>2.290162894456713</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4969680519494026</v>
+        <v>0.4969680519494025</v>
       </c>
       <c r="U18" t="n">
         <v>0.008111556887095804</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1033669435011334</v>
+        <v>0.1033669435011333</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9190260976737137</v>
+        <v>0.9190260976737136</v>
       </c>
       <c r="I19" t="n">
         <v>3.108525900924993</v>
       </c>
       <c r="J19" t="n">
-        <v>7.308042905530129</v>
+        <v>7.308042905530128</v>
       </c>
       <c r="K19" t="n">
         <v>12.00935943585895</v>
@@ -32405,7 +32405,7 @@
         <v>16.20323824354584</v>
       </c>
       <c r="N19" t="n">
-        <v>15.81796145413254</v>
+        <v>15.81796145413253</v>
       </c>
       <c r="O19" t="n">
         <v>14.61044761414202</v>
@@ -32420,7 +32420,7 @@
         <v>4.647753659605504</v>
       </c>
       <c r="S19" t="n">
-        <v>1.801403915378842</v>
+        <v>1.801403915378841</v>
       </c>
       <c r="T19" t="n">
         <v>0.4416587585957515</v>
@@ -32466,10 +32466,10 @@
         <v>0.2304388690203428</v>
       </c>
       <c r="H20" t="n">
-        <v>2.359982067354587</v>
+        <v>2.359982067354586</v>
       </c>
       <c r="I20" t="n">
-        <v>8.883994497906777</v>
+        <v>8.883994497906775</v>
       </c>
       <c r="J20" t="n">
         <v>19.55821095951534</v>
@@ -32484,10 +32484,10 @@
         <v>40.4630490598683</v>
       </c>
       <c r="N20" t="n">
-        <v>41.11778349647236</v>
+        <v>41.11778349647235</v>
       </c>
       <c r="O20" t="n">
-        <v>38.82635699265132</v>
+        <v>38.82635699265131</v>
       </c>
       <c r="P20" t="n">
         <v>33.1373974137116</v>
@@ -32557,7 +32557,7 @@
         <v>19.90954599414707</v>
       </c>
       <c r="L21" t="n">
-        <v>26.77084157971185</v>
+        <v>26.77084157971184</v>
       </c>
       <c r="M21" t="n">
         <v>31.24030942450162</v>
@@ -32575,13 +32575,13 @@
         <v>15.73858344280241</v>
       </c>
       <c r="R21" t="n">
-        <v>7.65514661958188</v>
+        <v>7.655146619581879</v>
       </c>
       <c r="S21" t="n">
         <v>2.290162894456713</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4969680519494026</v>
+        <v>0.4969680519494025</v>
       </c>
       <c r="U21" t="n">
         <v>0.008111556887095804</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1033669435011334</v>
+        <v>0.1033669435011333</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9190260976737137</v>
+        <v>0.9190260976737136</v>
       </c>
       <c r="I22" t="n">
         <v>3.108525900924993</v>
       </c>
       <c r="J22" t="n">
-        <v>7.308042905530129</v>
+        <v>7.308042905530128</v>
       </c>
       <c r="K22" t="n">
         <v>12.00935943585895</v>
@@ -32642,7 +32642,7 @@
         <v>16.20323824354584</v>
       </c>
       <c r="N22" t="n">
-        <v>15.81796145413254</v>
+        <v>15.81796145413253</v>
       </c>
       <c r="O22" t="n">
         <v>14.61044761414202</v>
@@ -32657,7 +32657,7 @@
         <v>4.647753659605504</v>
       </c>
       <c r="S22" t="n">
-        <v>1.801403915378842</v>
+        <v>1.801403915378841</v>
       </c>
       <c r="T22" t="n">
         <v>0.4416587585957515</v>
@@ -32703,10 +32703,10 @@
         <v>0.2304388690203428</v>
       </c>
       <c r="H23" t="n">
-        <v>2.359982067354587</v>
+        <v>2.359982067354586</v>
       </c>
       <c r="I23" t="n">
-        <v>8.883994497906777</v>
+        <v>8.883994497906775</v>
       </c>
       <c r="J23" t="n">
         <v>19.55821095951534</v>
@@ -32721,10 +32721,10 @@
         <v>40.4630490598683</v>
       </c>
       <c r="N23" t="n">
-        <v>41.11778349647236</v>
+        <v>41.11778349647235</v>
       </c>
       <c r="O23" t="n">
-        <v>38.82635699265132</v>
+        <v>38.82635699265131</v>
       </c>
       <c r="P23" t="n">
         <v>33.1373974137116</v>
@@ -32794,7 +32794,7 @@
         <v>19.90954599414707</v>
       </c>
       <c r="L24" t="n">
-        <v>26.77084157971185</v>
+        <v>26.77084157971184</v>
       </c>
       <c r="M24" t="n">
         <v>31.24030942450162</v>
@@ -32812,13 +32812,13 @@
         <v>15.73858344280241</v>
       </c>
       <c r="R24" t="n">
-        <v>7.65514661958188</v>
+        <v>7.655146619581879</v>
       </c>
       <c r="S24" t="n">
         <v>2.290162894456713</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4969680519494026</v>
+        <v>0.4969680519494025</v>
       </c>
       <c r="U24" t="n">
         <v>0.008111556887095804</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1033669435011334</v>
+        <v>0.1033669435011333</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9190260976737137</v>
+        <v>0.9190260976737136</v>
       </c>
       <c r="I25" t="n">
         <v>3.108525900924993</v>
       </c>
       <c r="J25" t="n">
-        <v>7.308042905530129</v>
+        <v>7.308042905530128</v>
       </c>
       <c r="K25" t="n">
         <v>12.00935943585895</v>
@@ -32879,7 +32879,7 @@
         <v>16.20323824354584</v>
       </c>
       <c r="N25" t="n">
-        <v>15.81796145413254</v>
+        <v>15.81796145413253</v>
       </c>
       <c r="O25" t="n">
         <v>14.61044761414202</v>
@@ -32894,7 +32894,7 @@
         <v>4.647753659605504</v>
       </c>
       <c r="S25" t="n">
-        <v>1.801403915378842</v>
+        <v>1.801403915378841</v>
       </c>
       <c r="T25" t="n">
         <v>0.4416587585957515</v>
@@ -32940,10 +32940,10 @@
         <v>0.2304388690203428</v>
       </c>
       <c r="H26" t="n">
-        <v>2.359982067354587</v>
+        <v>2.359982067354586</v>
       </c>
       <c r="I26" t="n">
-        <v>8.883994497906777</v>
+        <v>8.883994497906775</v>
       </c>
       <c r="J26" t="n">
         <v>19.55821095951534</v>
@@ -32958,10 +32958,10 @@
         <v>40.4630490598683</v>
       </c>
       <c r="N26" t="n">
-        <v>41.11778349647236</v>
+        <v>41.11778349647235</v>
       </c>
       <c r="O26" t="n">
-        <v>38.82635699265132</v>
+        <v>38.82635699265131</v>
       </c>
       <c r="P26" t="n">
         <v>33.1373974137116</v>
@@ -33031,7 +33031,7 @@
         <v>19.90954599414707</v>
       </c>
       <c r="L27" t="n">
-        <v>26.77084157971185</v>
+        <v>26.77084157971184</v>
       </c>
       <c r="M27" t="n">
         <v>31.24030942450162</v>
@@ -33049,13 +33049,13 @@
         <v>15.73858344280241</v>
       </c>
       <c r="R27" t="n">
-        <v>7.65514661958188</v>
+        <v>7.655146619581879</v>
       </c>
       <c r="S27" t="n">
         <v>2.290162894456713</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4969680519494026</v>
+        <v>0.4969680519494025</v>
       </c>
       <c r="U27" t="n">
         <v>0.008111556887095804</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1033669435011334</v>
+        <v>0.1033669435011333</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9190260976737137</v>
+        <v>0.9190260976737136</v>
       </c>
       <c r="I28" t="n">
         <v>3.108525900924993</v>
       </c>
       <c r="J28" t="n">
-        <v>7.308042905530129</v>
+        <v>7.308042905530128</v>
       </c>
       <c r="K28" t="n">
         <v>12.00935943585895</v>
@@ -33116,7 +33116,7 @@
         <v>16.20323824354584</v>
       </c>
       <c r="N28" t="n">
-        <v>15.81796145413254</v>
+        <v>15.81796145413253</v>
       </c>
       <c r="O28" t="n">
         <v>14.61044761414202</v>
@@ -33131,7 +33131,7 @@
         <v>4.647753659605504</v>
       </c>
       <c r="S28" t="n">
-        <v>1.801403915378842</v>
+        <v>1.801403915378841</v>
       </c>
       <c r="T28" t="n">
         <v>0.4416587585957515</v>
@@ -33177,10 +33177,10 @@
         <v>0.2304388690203428</v>
       </c>
       <c r="H29" t="n">
-        <v>2.359982067354587</v>
+        <v>2.359982067354586</v>
       </c>
       <c r="I29" t="n">
-        <v>8.883994497906777</v>
+        <v>8.883994497906775</v>
       </c>
       <c r="J29" t="n">
         <v>19.55821095951534</v>
@@ -33195,10 +33195,10 @@
         <v>40.4630490598683</v>
       </c>
       <c r="N29" t="n">
-        <v>41.11778349647236</v>
+        <v>41.11778349647235</v>
       </c>
       <c r="O29" t="n">
-        <v>38.82635699265132</v>
+        <v>38.82635699265131</v>
       </c>
       <c r="P29" t="n">
         <v>33.1373974137116</v>
@@ -33268,7 +33268,7 @@
         <v>19.90954599414707</v>
       </c>
       <c r="L30" t="n">
-        <v>26.77084157971185</v>
+        <v>26.77084157971184</v>
       </c>
       <c r="M30" t="n">
         <v>31.24030942450162</v>
@@ -33286,13 +33286,13 @@
         <v>15.73858344280241</v>
       </c>
       <c r="R30" t="n">
-        <v>7.65514661958188</v>
+        <v>7.655146619581879</v>
       </c>
       <c r="S30" t="n">
         <v>2.290162894456713</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4969680519494026</v>
+        <v>0.4969680519494025</v>
       </c>
       <c r="U30" t="n">
         <v>0.008111556887095804</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1033669435011334</v>
+        <v>0.1033669435011333</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9190260976737137</v>
+        <v>0.9190260976737136</v>
       </c>
       <c r="I31" t="n">
         <v>3.108525900924993</v>
       </c>
       <c r="J31" t="n">
-        <v>7.308042905530129</v>
+        <v>7.308042905530128</v>
       </c>
       <c r="K31" t="n">
         <v>12.00935943585895</v>
@@ -33353,7 +33353,7 @@
         <v>16.20323824354584</v>
       </c>
       <c r="N31" t="n">
-        <v>15.81796145413254</v>
+        <v>15.81796145413253</v>
       </c>
       <c r="O31" t="n">
         <v>14.61044761414202</v>
@@ -33368,7 +33368,7 @@
         <v>4.647753659605504</v>
       </c>
       <c r="S31" t="n">
-        <v>1.801403915378842</v>
+        <v>1.801403915378841</v>
       </c>
       <c r="T31" t="n">
         <v>0.4416587585957515</v>
@@ -33414,10 +33414,10 @@
         <v>0.2304388690203428</v>
       </c>
       <c r="H32" t="n">
-        <v>2.359982067354587</v>
+        <v>2.359982067354586</v>
       </c>
       <c r="I32" t="n">
-        <v>8.883994497906777</v>
+        <v>8.883994497906775</v>
       </c>
       <c r="J32" t="n">
         <v>19.55821095951534</v>
@@ -33432,10 +33432,10 @@
         <v>40.4630490598683</v>
       </c>
       <c r="N32" t="n">
-        <v>41.11778349647236</v>
+        <v>41.11778349647235</v>
       </c>
       <c r="O32" t="n">
-        <v>38.82635699265132</v>
+        <v>38.82635699265131</v>
       </c>
       <c r="P32" t="n">
         <v>33.1373974137116</v>
@@ -33505,7 +33505,7 @@
         <v>19.90954599414707</v>
       </c>
       <c r="L33" t="n">
-        <v>26.77084157971185</v>
+        <v>26.77084157971184</v>
       </c>
       <c r="M33" t="n">
         <v>31.24030942450162</v>
@@ -33523,13 +33523,13 @@
         <v>15.73858344280241</v>
       </c>
       <c r="R33" t="n">
-        <v>7.65514661958188</v>
+        <v>7.655146619581879</v>
       </c>
       <c r="S33" t="n">
         <v>2.290162894456713</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4969680519494026</v>
+        <v>0.4969680519494025</v>
       </c>
       <c r="U33" t="n">
         <v>0.008111556887095804</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1033669435011334</v>
+        <v>0.1033669435011333</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9190260976737137</v>
+        <v>0.9190260976737136</v>
       </c>
       <c r="I34" t="n">
         <v>3.108525900924993</v>
       </c>
       <c r="J34" t="n">
-        <v>7.308042905530129</v>
+        <v>7.308042905530128</v>
       </c>
       <c r="K34" t="n">
         <v>12.00935943585895</v>
@@ -33590,7 +33590,7 @@
         <v>16.20323824354584</v>
       </c>
       <c r="N34" t="n">
-        <v>15.81796145413254</v>
+        <v>15.81796145413253</v>
       </c>
       <c r="O34" t="n">
         <v>14.61044761414202</v>
@@ -33605,7 +33605,7 @@
         <v>4.647753659605504</v>
       </c>
       <c r="S34" t="n">
-        <v>1.801403915378842</v>
+        <v>1.801403915378841</v>
       </c>
       <c r="T34" t="n">
         <v>0.4416587585957515</v>
@@ -35178,19 +35178,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
-        <v>6.598225711743297</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35342,10 +35342,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>10.90214513407085</v>
       </c>
       <c r="K12" t="n">
-        <v>146.5333440323667</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>259.0568071032968</v>
+        <v>6.55005922722596</v>
       </c>
       <c r="M12" t="n">
         <v>302.0622562320661</v>
@@ -35503,10 +35503,10 @@
         <v>302.0622562320661</v>
       </c>
       <c r="O12" t="n">
-        <v>89.59358349643205</v>
+        <v>280.6012499292375</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>208.0324254756321</v>
       </c>
       <c r="Q12" t="n">
         <v>85.83409709262999</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.608921604902984</v>
+        <v>7.608921604902822</v>
       </c>
       <c r="K14" t="n">
         <v>133.3682498113307</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>10.90214513407085</v>
       </c>
       <c r="K15" t="n">
-        <v>146.2917505826961</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>259.0568071032968</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>302.0622562320661</v>
       </c>
       <c r="N15" t="n">
         <v>302.0622562320661</v>
@@ -35743,7 +35743,7 @@
         <v>280.6012499292375</v>
       </c>
       <c r="P15" t="n">
-        <v>208.0324254756321</v>
+        <v>41.35977469219105</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>7.608921604902825</v>
+        <v>7.608921604902984</v>
       </c>
       <c r="K17" t="n">
         <v>133.3682498113307</v>
@@ -35892,7 +35892,7 @@
         <v>218.259781403391</v>
       </c>
       <c r="M17" t="n">
-        <v>259.6303493254281</v>
+        <v>259.630349325428</v>
       </c>
       <c r="N17" t="n">
         <v>249.0516443118656</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.90214513407085</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>146.2917505826961</v>
       </c>
       <c r="L18" t="n">
-        <v>6.55005922722596</v>
+        <v>259.0568071032968</v>
       </c>
       <c r="M18" t="n">
         <v>302.0622562320661</v>
       </c>
       <c r="N18" t="n">
-        <v>302.0622562320661</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>280.6012499292375</v>
@@ -35983,7 +35983,7 @@
         <v>208.0324254756321</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.83409709262999</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>7.608921604902926</v>
+        <v>7.608921604902822</v>
       </c>
       <c r="K20" t="n">
         <v>133.3682498113307</v>
@@ -36129,10 +36129,10 @@
         <v>218.259781403391</v>
       </c>
       <c r="M20" t="n">
-        <v>259.6303493254281</v>
+        <v>259.630349325428</v>
       </c>
       <c r="N20" t="n">
-        <v>249.0516443118656</v>
+        <v>249.0516443118659</v>
       </c>
       <c r="O20" t="n">
         <v>189.5283268337099</v>
@@ -36202,7 +36202,7 @@
         <v>10.90214513407085</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>146.5333440323667</v>
       </c>
       <c r="L21" t="n">
         <v>259.0568071032968</v>
@@ -36211,16 +36211,16 @@
         <v>302.0622562320661</v>
       </c>
       <c r="N21" t="n">
-        <v>49.55550835599529</v>
+        <v>302.0622562320661</v>
       </c>
       <c r="O21" t="n">
-        <v>280.6012499292375</v>
+        <v>175.427680589062</v>
       </c>
       <c r="P21" t="n">
-        <v>208.0324254756321</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.83409709262999</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.608921604902926</v>
+        <v>7.608921604902822</v>
       </c>
       <c r="K23" t="n">
         <v>133.3682498113307</v>
       </c>
       <c r="L23" t="n">
-        <v>218.259781403391</v>
+        <v>218.2597814033912</v>
       </c>
       <c r="M23" t="n">
-        <v>259.6303493254281</v>
+        <v>259.630349325428</v>
       </c>
       <c r="N23" t="n">
         <v>249.0516443118656</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10.90214513407085</v>
       </c>
       <c r="K24" t="n">
         <v>146.5333440323667</v>
       </c>
       <c r="L24" t="n">
-        <v>258.8152136536262</v>
+        <v>259.0568071032968</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>205.0844205556947</v>
       </c>
       <c r="N24" t="n">
-        <v>302.0622562320661</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>280.6012499292375</v>
@@ -36457,7 +36457,7 @@
         <v>208.0324254756321</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>85.83409709262999</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36533,7 +36533,7 @@
         <v>170.3799527931267</v>
       </c>
       <c r="P25" t="n">
-        <v>140.9646984965574</v>
+        <v>140.9646984965571</v>
       </c>
       <c r="Q25" t="n">
         <v>53.67790598224097</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>86.72919200689398</v>
+        <v>86.72919200689395</v>
       </c>
       <c r="K26" t="n">
-        <v>133.3682498113307</v>
+        <v>212.4885202133218</v>
       </c>
       <c r="L26" t="n">
         <v>218.259781403391</v>
       </c>
       <c r="M26" t="n">
-        <v>295.8109754891527</v>
+        <v>259.630349325428</v>
       </c>
       <c r="N26" t="n">
         <v>249.0516443118656</v>
       </c>
       <c r="O26" t="n">
-        <v>268.6485972357011</v>
+        <v>189.5283268337099</v>
       </c>
       <c r="P26" t="n">
-        <v>123.7031098299247</v>
+        <v>202.8233802319158</v>
       </c>
       <c r="Q26" t="n">
-        <v>94.01437660436693</v>
+        <v>51.07473236610035</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>354.8113392524832</v>
       </c>
       <c r="N27" t="n">
-        <v>371.145425363699</v>
+        <v>371.1454253636991</v>
       </c>
       <c r="O27" t="n">
-        <v>241.30276871408</v>
+        <v>33.27034323844802</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>208.0324254756321</v>
       </c>
       <c r="Q27" t="n">
         <v>85.83409709262999</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>68.86013801196725</v>
+        <v>68.86013801196722</v>
       </c>
       <c r="L28" t="n">
         <v>122.0781410624667</v>
@@ -36767,13 +36767,13 @@
         <v>139.0704042353523</v>
       </c>
       <c r="O28" t="n">
-        <v>118.3158459301729</v>
+        <v>118.3158459301728</v>
       </c>
       <c r="P28" t="n">
-        <v>88.90059163360354</v>
+        <v>88.90059163360351</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.613799119287137</v>
+        <v>1.613799119287108</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.78954776862742</v>
+        <v>86.72919200689384</v>
       </c>
       <c r="K29" t="n">
-        <v>133.3682498113307</v>
+        <v>212.4885202133217</v>
       </c>
       <c r="L29" t="n">
-        <v>297.3800518053822</v>
+        <v>297.380051805382</v>
       </c>
       <c r="M29" t="n">
-        <v>338.7506197274192</v>
+        <v>295.8109754891528</v>
       </c>
       <c r="N29" t="n">
         <v>249.0516443118656</v>
@@ -36852,7 +36852,7 @@
         <v>123.7031098299247</v>
       </c>
       <c r="Q29" t="n">
-        <v>94.01437660436693</v>
+        <v>14.89410620237576</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10.90214513407085</v>
       </c>
       <c r="K30" t="n">
         <v>146.5333440323667</v>
@@ -36922,7 +36922,7 @@
         <v>354.8113392524832</v>
       </c>
       <c r="N30" t="n">
-        <v>220.5507608996107</v>
+        <v>209.6486157655394</v>
       </c>
       <c r="O30" t="n">
         <v>280.6012499292375</v>
@@ -36992,25 +36992,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.86013801196725</v>
+        <v>68.86013801196711</v>
       </c>
       <c r="L31" t="n">
-        <v>122.0781410624667</v>
+        <v>122.0781410624666</v>
       </c>
       <c r="M31" t="n">
-        <v>134.9073856073776</v>
+        <v>134.9073856073774</v>
       </c>
       <c r="N31" t="n">
-        <v>139.0704042353523</v>
+        <v>139.0704042353522</v>
       </c>
       <c r="O31" t="n">
-        <v>118.3158459301729</v>
+        <v>118.3158459301727</v>
       </c>
       <c r="P31" t="n">
-        <v>88.90059163360354</v>
+        <v>88.9005916336034</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.613799119287137</v>
+        <v>1.613799119286995</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.608921604902825</v>
+        <v>7.608921604902822</v>
       </c>
       <c r="K32" t="n">
-        <v>264.5526270762757</v>
+        <v>133.3682498113307</v>
       </c>
       <c r="L32" t="n">
         <v>218.259781403391</v>
       </c>
       <c r="M32" t="n">
-        <v>364.2693796219877</v>
+        <v>259.630349325428</v>
       </c>
       <c r="N32" t="n">
-        <v>259.5433111831819</v>
+        <v>249.0516443118656</v>
       </c>
       <c r="O32" t="n">
-        <v>189.5283268337099</v>
+        <v>320.712704098655</v>
       </c>
       <c r="P32" t="n">
-        <v>123.7031098299247</v>
+        <v>238.8338069978001</v>
       </c>
       <c r="Q32" t="n">
         <v>14.89410620237576</v>
@@ -37153,13 +37153,13 @@
         <v>146.5333440323667</v>
       </c>
       <c r="L33" t="n">
-        <v>88.11182544404221</v>
+        <v>259.0568071032968</v>
       </c>
       <c r="M33" t="n">
         <v>354.8113392524832</v>
       </c>
       <c r="N33" t="n">
-        <v>364.2693796219877</v>
+        <v>193.3243979627326</v>
       </c>
       <c r="O33" t="n">
         <v>280.6012499292375</v>
@@ -37241,7 +37241,7 @@
         <v>191.1345110983061</v>
       </c>
       <c r="O34" t="n">
-        <v>170.3799527931267</v>
+        <v>170.3799527931264</v>
       </c>
       <c r="P34" t="n">
         <v>140.9646984965574</v>
@@ -37326,7 +37326,7 @@
         <v>123.7031098299247</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.89410620237576</v>
+        <v>14.89410620237589</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>259.0568071032968</v>
       </c>
       <c r="M36" t="n">
-        <v>302.0622562320661</v>
+        <v>301.8206627823956</v>
       </c>
       <c r="N36" t="n">
-        <v>194.525559386937</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>280.6012499292375</v>
       </c>
       <c r="P36" t="n">
         <v>208.0324254756321</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.83409709262999</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>120.9242448749211</v>
       </c>
       <c r="L37" t="n">
-        <v>174.1422479254202</v>
+        <v>174.1422479254205</v>
       </c>
       <c r="M37" t="n">
         <v>186.9714924703314</v>
@@ -37478,7 +37478,7 @@
         <v>191.1345110983061</v>
       </c>
       <c r="O37" t="n">
-        <v>170.3799527931267</v>
+        <v>170.3799527931264</v>
       </c>
       <c r="P37" t="n">
         <v>140.9646984965574</v>
@@ -37548,7 +37548,7 @@
         <v>133.3682498113307</v>
       </c>
       <c r="L38" t="n">
-        <v>218.2597814033912</v>
+        <v>218.259781403391</v>
       </c>
       <c r="M38" t="n">
         <v>259.630349325428</v>
@@ -37563,7 +37563,7 @@
         <v>123.7031098299247</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.89410620237576</v>
+        <v>14.89410620237589</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>10.90214513407085</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>146.5333440323667</v>
@@ -37630,13 +37630,13 @@
         <v>259.0568071032968</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0622562320661</v>
+        <v>215.9865656897656</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>183.6234142528661</v>
+        <v>280.6012499292375</v>
       </c>
       <c r="P39" t="n">
         <v>208.0324254756321</v>
@@ -37788,7 +37788,7 @@
         <v>218.259781403391</v>
       </c>
       <c r="M41" t="n">
-        <v>259.6303493254282</v>
+        <v>259.630349325428</v>
       </c>
       <c r="N41" t="n">
         <v>249.0516443118656</v>
@@ -37800,7 +37800,7 @@
         <v>123.7031098299247</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.89410620237576</v>
+        <v>14.89410620237589</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>302.0622562320661</v>
       </c>
       <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
         <v>280.3596564795669</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>208.0324254756321</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3139171369226386</v>
+        <v>0.313917136922667</v>
       </c>
       <c r="K43" t="n">
-        <v>76.10492195804137</v>
+        <v>76.1049219580414</v>
       </c>
       <c r="L43" t="n">
-        <v>129.3229250085408</v>
+        <v>129.3229250085409</v>
       </c>
       <c r="M43" t="n">
         <v>142.1521695534517</v>
@@ -37955,10 +37955,10 @@
         <v>125.560629876247</v>
       </c>
       <c r="P43" t="n">
-        <v>96.14537557967766</v>
+        <v>96.14537557967769</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.858583065361259</v>
+        <v>8.858583065361287</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>7.608921604902984</v>
+        <v>7.608921604902822</v>
       </c>
       <c r="K44" t="n">
         <v>133.3682498113307</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>10.90214513407085</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>302.0622562320661</v>
       </c>
       <c r="O45" t="n">
-        <v>28.09450205316667</v>
+        <v>280.6012499292375</v>
       </c>
       <c r="P45" t="n">
-        <v>208.0324254756321</v>
+        <v>52.26191982626208</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.83409709262999</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.3139171369226386</v>
+        <v>0.3139171369227807</v>
       </c>
       <c r="K46" t="n">
-        <v>76.10492195804137</v>
+        <v>76.10492195804152</v>
       </c>
       <c r="L46" t="n">
-        <v>129.3229250085408</v>
+        <v>129.322925008541</v>
       </c>
       <c r="M46" t="n">
-        <v>142.1521695534517</v>
+        <v>142.1521695534518</v>
       </c>
       <c r="N46" t="n">
-        <v>146.3151881814264</v>
+        <v>146.3151881814265</v>
       </c>
       <c r="O46" t="n">
-        <v>125.560629876247</v>
+        <v>125.5606298762471</v>
       </c>
       <c r="P46" t="n">
-        <v>96.14537557967766</v>
+        <v>96.1453755796778</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.858583065361259</v>
+        <v>8.858583065361401</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
